--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="464">
-  <si>
-    <t>Questions by Love Babbar:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="463">
   <si>
     <t>Topic:</t>
   </si>
@@ -1853,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1865,22 +1862,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="21">
       <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1888,519 +1883,519 @@
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
       <c r="A8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
       <c r="A9" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
       <c r="A10" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
       <c r="A11" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
       <c r="A12" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
       <c r="A13" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
       <c r="A14" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
       <c r="A15" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
       <c r="A16" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">
       <c r="A36" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
       <c r="A37" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
       <c r="A38" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
       <c r="A39" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
       <c r="A40" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
       <c r="A41" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21">
       <c r="A50" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">
       <c r="A51" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
       <c r="A52" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21">
       <c r="A53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="21">
@@ -2410,475 +2405,475 @@
     </row>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>4</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
       <c r="A61" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
       <c r="A62" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">
       <c r="A63" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
       <c r="A64" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="21">
       <c r="A65" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21">
       <c r="A66" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21">
       <c r="A67" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">
       <c r="A68" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21">
       <c r="A69" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="21">
       <c r="A70" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21">
       <c r="A71" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21">
       <c r="A72" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="21">
       <c r="A73" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21">
       <c r="A74" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21">
       <c r="A76" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21">
       <c r="A77" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21">
       <c r="A78" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="21">
       <c r="A79" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="21">
       <c r="A80" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="21">
       <c r="A96" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="21">
       <c r="A97" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="21">
       <c r="A98" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="21">
@@ -2888,398 +2883,398 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
       <c r="A104" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
       <c r="A106" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="21">
       <c r="A107" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="21">
       <c r="A136" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="21">
@@ -3288,398 +3283,398 @@
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>133</v>
-      </c>
       <c r="C139" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
       <c r="A142" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="21">
@@ -3688,387 +3683,387 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="C177" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="21">
@@ -4083,244 +4078,244 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="C214" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="21">
@@ -4333,387 +4328,387 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B238" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="C238" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="21">
@@ -4726,211 +4721,211 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="C275" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="21">
@@ -4943,420 +4938,420 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B296" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="C296" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="21">
@@ -5369,200 +5364,200 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B336" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="C336" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="21">
@@ -5575,486 +5570,486 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B356" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="C356" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="21">
@@ -6067,68 +6062,68 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B402" s="6" t="s">
-        <v>386</v>
-      </c>
       <c r="C402" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C403" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C404" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">
@@ -6141,662 +6136,662 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B410" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B410" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="C410" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
@@ -6810,112 +6805,112 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B472" s="6" t="s">
-        <v>452</v>
-      </c>
       <c r="C472" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="463">
   <si>
     <t>Topic:</t>
   </si>
@@ -1848,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1962,9 +1962,11 @@
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="4" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -1972,10 +1974,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>462</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -1983,10 +1985,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -1994,7 +1996,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -2005,10 +2007,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>461</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2016,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>461</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>462</v>
@@ -2027,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3</v>
@@ -2038,7 +2040,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
@@ -2049,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2060,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>3</v>
@@ -2071,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>3</v>
@@ -2082,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>3</v>
@@ -2093,7 +2095,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>3</v>
@@ -2104,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>3</v>
@@ -2115,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>3</v>
@@ -2126,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>3</v>
@@ -2137,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>3</v>
@@ -2148,7 +2150,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>3</v>
@@ -2159,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>3</v>
@@ -2170,10 +2172,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2181,10 +2183,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>462</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2192,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>3</v>
@@ -2203,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>3</v>
@@ -2214,7 +2216,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>3</v>
@@ -2225,7 +2227,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>3</v>
@@ -2236,7 +2238,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
@@ -2247,7 +2249,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>3</v>
@@ -2258,32 +2260,28 @@
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
-      <c r="A41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" ht="21">
+      <c r="A42" s="5"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" ht="21">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
@@ -2293,7 +2291,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>3</v>
@@ -2304,7 +2302,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>3</v>
@@ -2315,7 +2313,7 @@
         <v>39</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>3</v>
@@ -2326,7 +2324,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>3</v>
@@ -2337,7 +2335,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>3</v>
@@ -2348,7 +2346,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>3</v>
@@ -2359,7 +2357,7 @@
         <v>39</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>3</v>
@@ -2370,7 +2368,7 @@
         <v>39</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>3</v>
@@ -2381,34 +2379,34 @@
         <v>39</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
-      <c r="A53" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>3</v>
-      </c>
+    <row r="54" spans="1:3" ht="21">
+      <c r="A54" s="5"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" ht="21">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>3</v>
@@ -2419,7 +2417,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>3</v>
@@ -2429,22 +2427,22 @@
       <c r="A58" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>53</v>
+      <c r="B58" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>54</v>
+      <c r="B59" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>462</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
@@ -2452,7 +2450,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>3</v>
@@ -2463,7 +2461,7 @@
         <v>50</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>3</v>
@@ -2474,7 +2472,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>3</v>
@@ -2485,7 +2483,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>3</v>
@@ -2496,7 +2494,7 @@
         <v>50</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>3</v>
@@ -2507,7 +2505,7 @@
         <v>50</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
@@ -2518,7 +2516,7 @@
         <v>50</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>3</v>
@@ -2529,7 +2527,7 @@
         <v>50</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>3</v>
@@ -2540,7 +2538,7 @@
         <v>50</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>3</v>
@@ -2551,7 +2549,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>3</v>
@@ -2562,7 +2560,7 @@
         <v>50</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>3</v>
@@ -2573,7 +2571,7 @@
         <v>50</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>3</v>
@@ -2584,7 +2582,7 @@
         <v>50</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>3</v>
@@ -2595,7 +2593,7 @@
         <v>50</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>3</v>
@@ -2606,7 +2604,7 @@
         <v>50</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>3</v>
@@ -2617,7 +2615,7 @@
         <v>50</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>3</v>
@@ -2628,7 +2626,7 @@
         <v>50</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>3</v>
@@ -2639,7 +2637,7 @@
         <v>50</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>3</v>
@@ -2650,7 +2648,7 @@
         <v>50</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>3</v>
@@ -2661,7 +2659,7 @@
         <v>50</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>3</v>
@@ -2672,7 +2670,7 @@
         <v>50</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>3</v>
@@ -2683,7 +2681,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>3</v>
@@ -2694,7 +2692,7 @@
         <v>50</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>3</v>
@@ -2705,7 +2703,7 @@
         <v>50</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>3</v>
@@ -2716,7 +2714,7 @@
         <v>50</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>3</v>
@@ -2727,7 +2725,7 @@
         <v>50</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>3</v>
@@ -2738,7 +2736,7 @@
         <v>50</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>3</v>
@@ -2749,7 +2747,7 @@
         <v>50</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>3</v>
@@ -2760,7 +2758,7 @@
         <v>50</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>3</v>
@@ -2771,7 +2769,7 @@
         <v>50</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>3</v>
@@ -2782,7 +2780,7 @@
         <v>50</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>3</v>
@@ -2793,7 +2791,7 @@
         <v>50</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>3</v>
@@ -2804,7 +2802,7 @@
         <v>50</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>3</v>
@@ -2815,7 +2813,7 @@
         <v>50</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>3</v>
@@ -2826,7 +2824,7 @@
         <v>50</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>3</v>
@@ -2837,7 +2835,7 @@
         <v>50</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>3</v>
@@ -2848,7 +2846,7 @@
         <v>50</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>3</v>
@@ -2859,34 +2857,34 @@
         <v>50</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
-      <c r="A98" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>3</v>
-      </c>
+    <row r="99" spans="1:3" ht="21">
+      <c r="A99" s="8"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3" ht="21">
-      <c r="A100" s="8"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="4"/>
+      <c r="A100" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>3</v>
@@ -2897,7 +2895,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>3</v>
@@ -2908,7 +2906,7 @@
         <v>94</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>3</v>
@@ -2919,7 +2917,7 @@
         <v>94</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>3</v>
@@ -2930,7 +2928,7 @@
         <v>94</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>3</v>
@@ -2941,7 +2939,7 @@
         <v>94</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>3</v>
@@ -2952,7 +2950,7 @@
         <v>94</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>3</v>
@@ -2963,7 +2961,7 @@
         <v>94</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>3</v>
@@ -2974,7 +2972,7 @@
         <v>94</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>3</v>
@@ -2985,7 +2983,7 @@
         <v>94</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>3</v>
@@ -2996,7 +2994,7 @@
         <v>94</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>3</v>
@@ -3007,7 +3005,7 @@
         <v>94</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>3</v>
@@ -3018,7 +3016,7 @@
         <v>94</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>3</v>
@@ -3029,7 +3027,7 @@
         <v>94</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>3</v>
@@ -3040,7 +3038,7 @@
         <v>94</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>3</v>
@@ -3051,7 +3049,7 @@
         <v>94</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>3</v>
@@ -3062,7 +3060,7 @@
         <v>94</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>3</v>
@@ -3073,7 +3071,7 @@
         <v>94</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>3</v>
@@ -3084,7 +3082,7 @@
         <v>94</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>3</v>
@@ -3095,7 +3093,7 @@
         <v>94</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>3</v>
@@ -3106,7 +3104,7 @@
         <v>94</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>3</v>
@@ -3117,7 +3115,7 @@
         <v>94</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>3</v>
@@ -3128,7 +3126,7 @@
         <v>94</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>3</v>
@@ -3139,7 +3137,7 @@
         <v>94</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>3</v>
@@ -3150,7 +3148,7 @@
         <v>94</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>3</v>
@@ -3161,7 +3159,7 @@
         <v>94</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>3</v>
@@ -3172,7 +3170,7 @@
         <v>94</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>3</v>
@@ -3183,7 +3181,7 @@
         <v>94</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>3</v>
@@ -3194,7 +3192,7 @@
         <v>94</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>3</v>
@@ -3205,7 +3203,7 @@
         <v>94</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>3</v>
@@ -3216,7 +3214,7 @@
         <v>94</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>3</v>
@@ -3227,7 +3225,7 @@
         <v>94</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>3</v>
@@ -3238,7 +3236,7 @@
         <v>94</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>3</v>
@@ -3249,7 +3247,7 @@
         <v>94</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>3</v>
@@ -3260,33 +3258,33 @@
         <v>94</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
-      <c r="A136" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>3</v>
-      </c>
+    <row r="137" spans="1:3" ht="21">
+      <c r="B137" s="7"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138" spans="1:3" ht="21">
-      <c r="B138" s="7"/>
-      <c r="C138" s="4"/>
+      <c r="A138" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>3</v>
@@ -3297,7 +3295,7 @@
         <v>131</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>3</v>
@@ -3308,7 +3306,7 @@
         <v>131</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>3</v>
@@ -3319,7 +3317,7 @@
         <v>131</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>3</v>
@@ -3330,7 +3328,7 @@
         <v>131</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>3</v>
@@ -3341,7 +3339,7 @@
         <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>3</v>
@@ -3352,7 +3350,7 @@
         <v>131</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>3</v>
@@ -3363,7 +3361,7 @@
         <v>131</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>3</v>
@@ -3374,7 +3372,7 @@
         <v>131</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>3</v>
@@ -3385,7 +3383,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>3</v>
@@ -3396,7 +3394,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>3</v>
@@ -3407,7 +3405,7 @@
         <v>131</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>3</v>
@@ -3418,7 +3416,7 @@
         <v>131</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>3</v>
@@ -3429,7 +3427,7 @@
         <v>131</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>3</v>
@@ -3440,7 +3438,7 @@
         <v>131</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>3</v>
@@ -3451,7 +3449,7 @@
         <v>131</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>3</v>
@@ -3462,7 +3460,7 @@
         <v>131</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>3</v>
@@ -3473,7 +3471,7 @@
         <v>131</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>3</v>
@@ -3484,7 +3482,7 @@
         <v>131</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>3</v>
@@ -3495,7 +3493,7 @@
         <v>131</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>3</v>
@@ -3506,7 +3504,7 @@
         <v>131</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>3</v>
@@ -3517,7 +3515,7 @@
         <v>131</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>3</v>
@@ -3528,7 +3526,7 @@
         <v>131</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>3</v>
@@ -3539,7 +3537,7 @@
         <v>131</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>3</v>
@@ -3549,8 +3547,8 @@
       <c r="A163" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>156</v>
+      <c r="B163" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>3</v>
@@ -3561,7 +3559,7 @@
         <v>131</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>3</v>
@@ -3571,8 +3569,8 @@
       <c r="A165" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>158</v>
+      <c r="B165" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>3</v>
@@ -3583,7 +3581,7 @@
         <v>131</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>3</v>
@@ -3594,7 +3592,7 @@
         <v>131</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>3</v>
@@ -3605,7 +3603,7 @@
         <v>131</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>3</v>
@@ -3616,7 +3614,7 @@
         <v>131</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>3</v>
@@ -3627,7 +3625,7 @@
         <v>131</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>3</v>
@@ -3638,7 +3636,7 @@
         <v>131</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>3</v>
@@ -3649,7 +3647,7 @@
         <v>131</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>3</v>
@@ -3660,33 +3658,33 @@
         <v>131</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21">
-      <c r="A174" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>3</v>
-      </c>
+    <row r="175" spans="1:3" ht="21">
+      <c r="B175" s="7"/>
+      <c r="C175" s="4"/>
     </row>
     <row r="176" spans="1:3" ht="21">
-      <c r="B176" s="7"/>
-      <c r="C176" s="4"/>
+      <c r="A176" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>3</v>
@@ -3697,7 +3695,7 @@
         <v>168</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>3</v>
@@ -3708,7 +3706,7 @@
         <v>168</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>3</v>
@@ -3719,7 +3717,7 @@
         <v>168</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>3</v>
@@ -3730,7 +3728,7 @@
         <v>168</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>3</v>
@@ -3741,7 +3739,7 @@
         <v>168</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>3</v>
@@ -3752,7 +3750,7 @@
         <v>168</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>3</v>
@@ -3763,7 +3761,7 @@
         <v>168</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>3</v>
@@ -3774,7 +3772,7 @@
         <v>168</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>3</v>
@@ -3785,7 +3783,7 @@
         <v>168</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>3</v>
@@ -3796,7 +3794,7 @@
         <v>168</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>3</v>
@@ -3807,7 +3805,7 @@
         <v>168</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>3</v>
@@ -3818,7 +3816,7 @@
         <v>168</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>3</v>
@@ -3829,7 +3827,7 @@
         <v>168</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>3</v>
@@ -3840,7 +3838,7 @@
         <v>168</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>3</v>
@@ -3851,7 +3849,7 @@
         <v>168</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>3</v>
@@ -3862,7 +3860,7 @@
         <v>168</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>3</v>
@@ -3873,7 +3871,7 @@
         <v>168</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>3</v>
@@ -3884,7 +3882,7 @@
         <v>168</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>3</v>
@@ -3895,7 +3893,7 @@
         <v>168</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>3</v>
@@ -3906,7 +3904,7 @@
         <v>168</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>3</v>
@@ -3917,7 +3915,7 @@
         <v>168</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>3</v>
@@ -3928,7 +3926,7 @@
         <v>168</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>3</v>
@@ -3939,7 +3937,7 @@
         <v>168</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>3</v>
@@ -3950,7 +3948,7 @@
         <v>168</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>3</v>
@@ -3961,7 +3959,7 @@
         <v>168</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>3</v>
@@ -3972,7 +3970,7 @@
         <v>168</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>3</v>
@@ -3983,7 +3981,7 @@
         <v>168</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>3</v>
@@ -3994,7 +3992,7 @@
         <v>168</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>3</v>
@@ -4005,7 +4003,7 @@
         <v>168</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>3</v>
@@ -4016,7 +4014,7 @@
         <v>168</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>3</v>
@@ -4027,7 +4025,7 @@
         <v>168</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>3</v>
@@ -4038,7 +4036,7 @@
         <v>168</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>3</v>
@@ -4049,22 +4047,16 @@
         <v>168</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">
-      <c r="A211" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A211" s="8"/>
+      <c r="B211" s="7"/>
+      <c r="C211" s="4"/>
     </row>
     <row r="212" spans="1:3" ht="21">
       <c r="A212" s="8"/>
@@ -4072,16 +4064,22 @@
       <c r="C212" s="4"/>
     </row>
     <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="8"/>
-      <c r="B213" s="7"/>
-      <c r="C213" s="4"/>
+      <c r="A213" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>3</v>
@@ -4092,7 +4090,7 @@
         <v>204</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>3</v>
@@ -4103,7 +4101,7 @@
         <v>204</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>3</v>
@@ -4114,7 +4112,7 @@
         <v>204</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>3</v>
@@ -4125,7 +4123,7 @@
         <v>204</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>3</v>
@@ -4135,8 +4133,8 @@
       <c r="A219" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B219" s="6" t="s">
-        <v>210</v>
+      <c r="B219" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>3</v>
@@ -4146,8 +4144,8 @@
       <c r="A220" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>211</v>
+      <c r="B220" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>3</v>
@@ -4158,7 +4156,7 @@
         <v>204</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>3</v>
@@ -4169,7 +4167,7 @@
         <v>204</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>3</v>
@@ -4180,7 +4178,7 @@
         <v>204</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>3</v>
@@ -4191,7 +4189,7 @@
         <v>204</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>3</v>
@@ -4202,7 +4200,7 @@
         <v>204</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>3</v>
@@ -4213,7 +4211,7 @@
         <v>204</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>3</v>
@@ -4224,7 +4222,7 @@
         <v>204</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>3</v>
@@ -4235,7 +4233,7 @@
         <v>204</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>3</v>
@@ -4246,7 +4244,7 @@
         <v>204</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>3</v>
@@ -4257,7 +4255,7 @@
         <v>204</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>3</v>
@@ -4268,7 +4266,7 @@
         <v>204</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>3</v>
@@ -4279,7 +4277,7 @@
         <v>204</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>3</v>
@@ -4290,7 +4288,7 @@
         <v>204</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>3</v>
@@ -4301,37 +4299,37 @@
         <v>204</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
-      <c r="A235" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B235" s="7"/>
+      <c r="C235" s="4"/>
     </row>
     <row r="236" spans="1:3" ht="21">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
     </row>
     <row r="237" spans="1:3" ht="21">
-      <c r="B237" s="7"/>
-      <c r="C237" s="4"/>
+      <c r="A237" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
         <v>227</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>3</v>
@@ -4342,7 +4340,7 @@
         <v>227</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>3</v>
@@ -4353,7 +4351,7 @@
         <v>227</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>3</v>
@@ -4364,7 +4362,7 @@
         <v>227</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>3</v>
@@ -4375,7 +4373,7 @@
         <v>227</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>3</v>
@@ -4386,7 +4384,7 @@
         <v>227</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>3</v>
@@ -4397,7 +4395,7 @@
         <v>227</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>3</v>
@@ -4408,7 +4406,7 @@
         <v>227</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>3</v>
@@ -4419,7 +4417,7 @@
         <v>227</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>3</v>
@@ -4430,7 +4428,7 @@
         <v>227</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>3</v>
@@ -4441,7 +4439,7 @@
         <v>227</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>3</v>
@@ -4452,7 +4450,7 @@
         <v>227</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>3</v>
@@ -4463,7 +4461,7 @@
         <v>227</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>3</v>
@@ -4474,7 +4472,7 @@
         <v>227</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>3</v>
@@ -4485,7 +4483,7 @@
         <v>227</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>3</v>
@@ -4496,7 +4494,7 @@
         <v>227</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>3</v>
@@ -4507,7 +4505,7 @@
         <v>227</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>3</v>
@@ -4518,7 +4516,7 @@
         <v>227</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>3</v>
@@ -4529,7 +4527,7 @@
         <v>227</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>3</v>
@@ -4540,7 +4538,7 @@
         <v>227</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>3</v>
@@ -4551,7 +4549,7 @@
         <v>227</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>3</v>
@@ -4562,7 +4560,7 @@
         <v>227</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>3</v>
@@ -4573,7 +4571,7 @@
         <v>227</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>3</v>
@@ -4584,7 +4582,7 @@
         <v>227</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>3</v>
@@ -4595,7 +4593,7 @@
         <v>227</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>3</v>
@@ -4606,7 +4604,7 @@
         <v>227</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>3</v>
@@ -4617,7 +4615,7 @@
         <v>227</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>3</v>
@@ -4628,7 +4626,7 @@
         <v>227</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>3</v>
@@ -4639,7 +4637,7 @@
         <v>227</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>3</v>
@@ -4650,7 +4648,7 @@
         <v>227</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>3</v>
@@ -4661,7 +4659,7 @@
         <v>227</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>3</v>
@@ -4672,7 +4670,7 @@
         <v>227</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>3</v>
@@ -4683,7 +4681,7 @@
         <v>227</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>260</v>
+        <v>84</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>3</v>
@@ -4694,37 +4692,37 @@
         <v>227</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="21">
-      <c r="A272" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B272" s="7"/>
+      <c r="C272" s="4"/>
     </row>
     <row r="273" spans="1:3" ht="21">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
     </row>
     <row r="274" spans="1:3" ht="21">
-      <c r="B274" s="7"/>
-      <c r="C274" s="4"/>
+      <c r="A274" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
         <v>262</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>3</v>
@@ -4735,7 +4733,7 @@
         <v>262</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>3</v>
@@ -4746,7 +4744,7 @@
         <v>262</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>3</v>
@@ -4757,7 +4755,7 @@
         <v>262</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>3</v>
@@ -4768,7 +4766,7 @@
         <v>262</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>3</v>
@@ -4779,7 +4777,7 @@
         <v>262</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>3</v>
@@ -4790,7 +4788,7 @@
         <v>262</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>3</v>
@@ -4801,7 +4799,7 @@
         <v>262</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>3</v>
@@ -4812,7 +4810,7 @@
         <v>262</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>3</v>
@@ -4823,7 +4821,7 @@
         <v>262</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>3</v>
@@ -4834,7 +4832,7 @@
         <v>262</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>3</v>
@@ -4845,7 +4843,7 @@
         <v>262</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>3</v>
@@ -4856,7 +4854,7 @@
         <v>262</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>3</v>
@@ -4867,7 +4865,7 @@
         <v>262</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>3</v>
@@ -4878,7 +4876,7 @@
         <v>262</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>3</v>
@@ -4889,7 +4887,7 @@
         <v>262</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>3</v>
@@ -4900,7 +4898,7 @@
         <v>262</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>3</v>
@@ -4911,37 +4909,37 @@
         <v>262</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="21">
-      <c r="A293" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B293" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B293" s="7"/>
+      <c r="C293" s="4"/>
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
     </row>
     <row r="295" spans="1:3" ht="21">
-      <c r="B295" s="7"/>
-      <c r="C295" s="4"/>
+      <c r="A295" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
         <v>282</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>3</v>
@@ -4952,7 +4950,7 @@
         <v>282</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>3</v>
@@ -4963,7 +4961,7 @@
         <v>282</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>3</v>
@@ -4974,7 +4972,7 @@
         <v>282</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>3</v>
@@ -4985,7 +4983,7 @@
         <v>282</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>3</v>
@@ -4996,7 +4994,7 @@
         <v>282</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>3</v>
@@ -5007,7 +5005,7 @@
         <v>282</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>3</v>
@@ -5018,7 +5016,7 @@
         <v>282</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>3</v>
@@ -5029,7 +5027,7 @@
         <v>282</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>3</v>
@@ -5040,7 +5038,7 @@
         <v>282</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>3</v>
@@ -5051,7 +5049,7 @@
         <v>282</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>3</v>
@@ -5062,7 +5060,7 @@
         <v>282</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>3</v>
@@ -5072,8 +5070,8 @@
       <c r="A308" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B308" s="6" t="s">
-        <v>295</v>
+      <c r="B308" s="9" t="s">
+        <v>296</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>3</v>
@@ -5083,8 +5081,8 @@
       <c r="A309" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B309" s="9" t="s">
-        <v>296</v>
+      <c r="B309" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>3</v>
@@ -5095,7 +5093,7 @@
         <v>282</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>3</v>
@@ -5106,7 +5104,7 @@
         <v>282</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>3</v>
@@ -5117,7 +5115,7 @@
         <v>282</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>3</v>
@@ -5128,7 +5126,7 @@
         <v>282</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>3</v>
@@ -5139,7 +5137,7 @@
         <v>282</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>3</v>
@@ -5150,7 +5148,7 @@
         <v>282</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>3</v>
@@ -5161,7 +5159,7 @@
         <v>282</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>3</v>
@@ -5172,7 +5170,7 @@
         <v>282</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>3</v>
@@ -5183,7 +5181,7 @@
         <v>282</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>3</v>
@@ -5194,7 +5192,7 @@
         <v>282</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>3</v>
@@ -5205,7 +5203,7 @@
         <v>282</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>3</v>
@@ -5216,7 +5214,7 @@
         <v>282</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>3</v>
@@ -5227,7 +5225,7 @@
         <v>282</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>3</v>
@@ -5238,7 +5236,7 @@
         <v>282</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>3</v>
@@ -5249,7 +5247,7 @@
         <v>282</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>3</v>
@@ -5260,7 +5258,7 @@
         <v>282</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>3</v>
@@ -5271,7 +5269,7 @@
         <v>282</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>3</v>
@@ -5282,7 +5280,7 @@
         <v>282</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>3</v>
@@ -5293,7 +5291,7 @@
         <v>282</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>3</v>
@@ -5304,7 +5302,7 @@
         <v>282</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>3</v>
@@ -5315,7 +5313,7 @@
         <v>282</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>3</v>
@@ -5326,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>3</v>
@@ -5337,37 +5335,37 @@
         <v>282</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">
-      <c r="A333" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B333" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C333" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B333" s="7"/>
+      <c r="C333" s="4"/>
     </row>
     <row r="334" spans="1:3" ht="21">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
     </row>
     <row r="335" spans="1:3" ht="21">
-      <c r="B335" s="7"/>
-      <c r="C335" s="4"/>
+      <c r="A335" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
         <v>321</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>3</v>
@@ -5378,7 +5376,7 @@
         <v>321</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>3</v>
@@ -5389,7 +5387,7 @@
         <v>321</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>3</v>
@@ -5400,7 +5398,7 @@
         <v>321</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>3</v>
@@ -5411,7 +5409,7 @@
         <v>321</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>3</v>
@@ -5422,7 +5420,7 @@
         <v>321</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>3</v>
@@ -5433,7 +5431,7 @@
         <v>321</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>3</v>
@@ -5443,8 +5441,8 @@
       <c r="A343" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B343" s="6" t="s">
-        <v>329</v>
+      <c r="B343" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>3</v>
@@ -5454,8 +5452,8 @@
       <c r="A344" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="B344" s="9" t="s">
-        <v>330</v>
+      <c r="B344" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>3</v>
@@ -5466,7 +5464,7 @@
         <v>321</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>3</v>
@@ -5477,7 +5475,7 @@
         <v>321</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>3</v>
@@ -5488,7 +5486,7 @@
         <v>321</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>3</v>
@@ -5499,7 +5497,7 @@
         <v>321</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>3</v>
@@ -5510,7 +5508,7 @@
         <v>321</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>3</v>
@@ -5521,7 +5519,7 @@
         <v>321</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>3</v>
@@ -5532,7 +5530,7 @@
         <v>321</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>3</v>
@@ -5543,37 +5541,37 @@
         <v>321</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="21">
-      <c r="A353" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C353" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B353" s="7"/>
+      <c r="C353" s="4"/>
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
     </row>
     <row r="355" spans="1:3" ht="21">
-      <c r="B355" s="7"/>
-      <c r="C355" s="4"/>
+      <c r="A355" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
         <v>340</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>3</v>
@@ -5584,7 +5582,7 @@
         <v>340</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>3</v>
@@ -5595,7 +5593,7 @@
         <v>340</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>3</v>
@@ -5606,7 +5604,7 @@
         <v>340</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>3</v>
@@ -5617,7 +5615,7 @@
         <v>340</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>3</v>
@@ -5628,7 +5626,7 @@
         <v>340</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>3</v>
@@ -5639,7 +5637,7 @@
         <v>340</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>3</v>
@@ -5650,7 +5648,7 @@
         <v>340</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>3</v>
@@ -5661,7 +5659,7 @@
         <v>340</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>3</v>
@@ -5672,7 +5670,7 @@
         <v>340</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>3</v>
@@ -5683,7 +5681,7 @@
         <v>340</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>3</v>
@@ -5694,7 +5692,7 @@
         <v>340</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>3</v>
@@ -5705,7 +5703,7 @@
         <v>340</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>3</v>
@@ -5716,7 +5714,7 @@
         <v>340</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>3</v>
@@ -5727,7 +5725,7 @@
         <v>340</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>3</v>
@@ -5738,7 +5736,7 @@
         <v>340</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>3</v>
@@ -5749,7 +5747,7 @@
         <v>340</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>3</v>
@@ -5760,7 +5758,7 @@
         <v>340</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>3</v>
@@ -5771,7 +5769,7 @@
         <v>340</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>3</v>
@@ -5782,7 +5780,7 @@
         <v>340</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>3</v>
@@ -5793,7 +5791,7 @@
         <v>340</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>3</v>
@@ -5804,7 +5802,7 @@
         <v>340</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>3</v>
@@ -5815,7 +5813,7 @@
         <v>340</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>3</v>
@@ -5826,7 +5824,7 @@
         <v>340</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>3</v>
@@ -5837,7 +5835,7 @@
         <v>340</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>3</v>
@@ -5848,7 +5846,7 @@
         <v>340</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>3</v>
@@ -5859,7 +5857,7 @@
         <v>340</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>3</v>
@@ -5870,7 +5868,7 @@
         <v>340</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>3</v>
@@ -5881,7 +5879,7 @@
         <v>340</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>3</v>
@@ -5892,7 +5890,7 @@
         <v>340</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>3</v>
@@ -5903,7 +5901,7 @@
         <v>340</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>3</v>
@@ -5914,7 +5912,7 @@
         <v>340</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>3</v>
@@ -5925,7 +5923,7 @@
         <v>340</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>3</v>
@@ -5947,7 +5945,7 @@
         <v>340</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>3</v>
@@ -5958,7 +5956,7 @@
         <v>340</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>3</v>
@@ -5969,7 +5967,7 @@
         <v>340</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>3</v>
@@ -5980,7 +5978,7 @@
         <v>340</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>3</v>
@@ -5991,7 +5989,7 @@
         <v>340</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>3</v>
@@ -6002,7 +6000,7 @@
         <v>340</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>3</v>
@@ -6013,7 +6011,7 @@
         <v>340</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>3</v>
@@ -6024,7 +6022,7 @@
         <v>340</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>3</v>
@@ -6035,37 +6033,37 @@
         <v>340</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="21">
-      <c r="A399" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B399" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C399" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B399" s="7"/>
+      <c r="C399" s="4"/>
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>
     <row r="401" spans="1:3" ht="21">
-      <c r="B401" s="7"/>
-      <c r="C401" s="4"/>
+      <c r="A401" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
         <v>384</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>3</v>
@@ -6076,7 +6074,7 @@
         <v>384</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>3</v>
@@ -6087,7 +6085,7 @@
         <v>384</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>387</v>
+        <v>86</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>3</v>
@@ -6098,7 +6096,7 @@
         <v>384</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>86</v>
+        <v>388</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>3</v>
@@ -6109,37 +6107,37 @@
         <v>384</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
-      <c r="A407" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B407" s="7"/>
+      <c r="C407" s="4"/>
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
     </row>
     <row r="409" spans="1:3" ht="21">
-      <c r="B409" s="7"/>
-      <c r="C409" s="4"/>
+      <c r="A409" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
         <v>390</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>3</v>
@@ -6150,7 +6148,7 @@
         <v>390</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>3</v>
@@ -6161,7 +6159,7 @@
         <v>390</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>3</v>
@@ -6172,7 +6170,7 @@
         <v>390</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>3</v>
@@ -6183,7 +6181,7 @@
         <v>390</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>3</v>
@@ -6194,7 +6192,7 @@
         <v>390</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>3</v>
@@ -6205,7 +6203,7 @@
         <v>390</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>397</v>
+        <v>270</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>3</v>
@@ -6216,7 +6214,7 @@
         <v>390</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>270</v>
+        <v>398</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>3</v>
@@ -6227,7 +6225,7 @@
         <v>390</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>3</v>
@@ -6238,7 +6236,7 @@
         <v>390</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>3</v>
@@ -6249,7 +6247,7 @@
         <v>390</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>3</v>
@@ -6260,7 +6258,7 @@
         <v>390</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>3</v>
@@ -6271,7 +6269,7 @@
         <v>390</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>3</v>
@@ -6282,7 +6280,7 @@
         <v>390</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>3</v>
@@ -6293,7 +6291,7 @@
         <v>390</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>3</v>
@@ -6304,7 +6302,7 @@
         <v>390</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>3</v>
@@ -6315,7 +6313,7 @@
         <v>390</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>3</v>
@@ -6326,7 +6324,7 @@
         <v>390</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>3</v>
@@ -6337,7 +6335,7 @@
         <v>390</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>3</v>
@@ -6348,7 +6346,7 @@
         <v>390</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>3</v>
@@ -6359,7 +6357,7 @@
         <v>390</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>3</v>
@@ -6370,7 +6368,7 @@
         <v>390</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>3</v>
@@ -6381,7 +6379,7 @@
         <v>390</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>3</v>
@@ -6392,7 +6390,7 @@
         <v>390</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>3</v>
@@ -6403,7 +6401,7 @@
         <v>390</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>3</v>
@@ -6414,7 +6412,7 @@
         <v>390</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>3</v>
@@ -6425,7 +6423,7 @@
         <v>390</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>3</v>
@@ -6436,7 +6434,7 @@
         <v>390</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>3</v>
@@ -6447,7 +6445,7 @@
         <v>390</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>3</v>
@@ -6458,7 +6456,7 @@
         <v>390</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>3</v>
@@ -6469,7 +6467,7 @@
         <v>390</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>3</v>
@@ -6480,7 +6478,7 @@
         <v>390</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>3</v>
@@ -6491,7 +6489,7 @@
         <v>390</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>3</v>
@@ -6502,7 +6500,7 @@
         <v>390</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>3</v>
@@ -6513,7 +6511,7 @@
         <v>390</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>3</v>
@@ -6524,7 +6522,7 @@
         <v>390</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>3</v>
@@ -6535,7 +6533,7 @@
         <v>390</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>3</v>
@@ -6546,7 +6544,7 @@
         <v>390</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>3</v>
@@ -6557,7 +6555,7 @@
         <v>390</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>3</v>
@@ -6568,7 +6566,7 @@
         <v>390</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>3</v>
@@ -6579,7 +6577,7 @@
         <v>390</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>3</v>
@@ -6590,7 +6588,7 @@
         <v>390</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>3</v>
@@ -6601,7 +6599,7 @@
         <v>390</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>3</v>
@@ -6612,7 +6610,7 @@
         <v>390</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>3</v>
@@ -6623,7 +6621,7 @@
         <v>390</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>3</v>
@@ -6634,7 +6632,7 @@
         <v>390</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>3</v>
@@ -6645,7 +6643,7 @@
         <v>390</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>3</v>
@@ -6656,7 +6654,7 @@
         <v>390</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>3</v>
@@ -6667,7 +6665,7 @@
         <v>390</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>3</v>
@@ -6678,7 +6676,7 @@
         <v>390</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>3</v>
@@ -6689,7 +6687,7 @@
         <v>390</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>3</v>
@@ -6700,7 +6698,7 @@
         <v>390</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>3</v>
@@ -6711,7 +6709,7 @@
         <v>390</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>3</v>
@@ -6722,7 +6720,7 @@
         <v>390</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>3</v>
@@ -6733,7 +6731,7 @@
         <v>390</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>3</v>
@@ -6744,7 +6742,7 @@
         <v>390</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>3</v>
@@ -6755,7 +6753,7 @@
         <v>390</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>3</v>
@@ -6766,7 +6764,7 @@
         <v>390</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>3</v>
@@ -6777,38 +6775,38 @@
         <v>390</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
-      <c r="A469" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B469" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C469" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B469" s="7"/>
+      <c r="C469" s="4"/>
     </row>
     <row r="470" spans="1:3" ht="21">
+      <c r="A470" s="8"/>
       <c r="B470" s="7"/>
       <c r="C470" s="4"/>
     </row>
     <row r="471" spans="1:3" ht="21">
-      <c r="A471" s="8"/>
-      <c r="B471" s="7"/>
-      <c r="C471" s="4"/>
+      <c r="A471" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
         <v>450</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>3</v>
@@ -6819,7 +6817,7 @@
         <v>450</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>3</v>
@@ -6830,7 +6828,7 @@
         <v>450</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>3</v>
@@ -6841,7 +6839,7 @@
         <v>450</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>3</v>
@@ -6852,7 +6850,7 @@
         <v>450</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>3</v>
@@ -6863,7 +6861,7 @@
         <v>450</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>3</v>
@@ -6874,7 +6872,7 @@
         <v>450</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>3</v>
@@ -6885,7 +6883,7 @@
         <v>450</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>3</v>
@@ -6896,20 +6894,9 @@
         <v>450</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="21">
-      <c r="A481" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C481" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6922,443 +6909,443 @@
     <hyperlink ref="B10" r:id="rId5"/>
     <hyperlink ref="B11" r:id="rId6"/>
     <hyperlink ref="B12" r:id="rId7"/>
-    <hyperlink ref="B14" r:id="rId8"/>
-    <hyperlink ref="B15" r:id="rId9"/>
-    <hyperlink ref="B16" r:id="rId10"/>
-    <hyperlink ref="B17" r:id="rId11"/>
-    <hyperlink ref="B18" r:id="rId12" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId13"/>
-    <hyperlink ref="B20" r:id="rId14"/>
-    <hyperlink ref="B21" r:id="rId15"/>
-    <hyperlink ref="B22" r:id="rId16"/>
-    <hyperlink ref="B23" r:id="rId17"/>
-    <hyperlink ref="B24" r:id="rId18"/>
-    <hyperlink ref="B25" r:id="rId19"/>
-    <hyperlink ref="B26" r:id="rId20"/>
-    <hyperlink ref="B27" r:id="rId21"/>
-    <hyperlink ref="B28" r:id="rId22"/>
-    <hyperlink ref="B29" r:id="rId23"/>
-    <hyperlink ref="B30" r:id="rId24"/>
-    <hyperlink ref="B31" r:id="rId25"/>
-    <hyperlink ref="B32" r:id="rId26"/>
-    <hyperlink ref="B33" r:id="rId27"/>
-    <hyperlink ref="B34" r:id="rId28"/>
-    <hyperlink ref="B35" r:id="rId29"/>
-    <hyperlink ref="B36" r:id="rId30"/>
-    <hyperlink ref="B37" r:id="rId31"/>
-    <hyperlink ref="B38" r:id="rId32"/>
-    <hyperlink ref="B39" r:id="rId33"/>
-    <hyperlink ref="B40" r:id="rId34"/>
-    <hyperlink ref="B41" r:id="rId35"/>
-    <hyperlink ref="B44" r:id="rId36"/>
-    <hyperlink ref="B45" r:id="rId37"/>
-    <hyperlink ref="B46" r:id="rId38"/>
-    <hyperlink ref="B47" r:id="rId39"/>
-    <hyperlink ref="B48" r:id="rId40"/>
-    <hyperlink ref="B49" r:id="rId41"/>
-    <hyperlink ref="B50" r:id="rId42"/>
-    <hyperlink ref="B51" r:id="rId43"/>
-    <hyperlink ref="B52" r:id="rId44"/>
-    <hyperlink ref="B53" r:id="rId45"/>
-    <hyperlink ref="B56" r:id="rId46"/>
-    <hyperlink ref="B57" r:id="rId47"/>
-    <hyperlink ref="B58" r:id="rId48"/>
-    <hyperlink ref="B60" r:id="rId49"/>
-    <hyperlink ref="B61" r:id="rId50"/>
-    <hyperlink ref="B62" r:id="rId51"/>
-    <hyperlink ref="B63" r:id="rId52"/>
-    <hyperlink ref="B64" r:id="rId53"/>
-    <hyperlink ref="B65" r:id="rId54"/>
-    <hyperlink ref="B66" r:id="rId55"/>
-    <hyperlink ref="B67" r:id="rId56"/>
-    <hyperlink ref="B68" r:id="rId57"/>
-    <hyperlink ref="B69" r:id="rId58"/>
-    <hyperlink ref="B70" r:id="rId59"/>
-    <hyperlink ref="B71" r:id="rId60"/>
-    <hyperlink ref="B72" r:id="rId61"/>
-    <hyperlink ref="B73" r:id="rId62"/>
-    <hyperlink ref="B74" r:id="rId63"/>
-    <hyperlink ref="B75" r:id="rId64"/>
-    <hyperlink ref="B76" r:id="rId65"/>
-    <hyperlink ref="B77" r:id="rId66"/>
-    <hyperlink ref="B78" r:id="rId67"/>
-    <hyperlink ref="B79" r:id="rId68"/>
-    <hyperlink ref="B80" r:id="rId69"/>
-    <hyperlink ref="B81" r:id="rId70"/>
-    <hyperlink ref="B82" r:id="rId71"/>
-    <hyperlink ref="B83" r:id="rId72"/>
-    <hyperlink ref="B84" r:id="rId73"/>
-    <hyperlink ref="B85" r:id="rId74"/>
-    <hyperlink ref="B86" r:id="rId75"/>
-    <hyperlink ref="B87" r:id="rId76"/>
-    <hyperlink ref="B88" r:id="rId77"/>
-    <hyperlink ref="B89" r:id="rId78"/>
-    <hyperlink ref="B90" r:id="rId79"/>
-    <hyperlink ref="B91" r:id="rId80"/>
-    <hyperlink ref="B92" r:id="rId81"/>
-    <hyperlink ref="B93" r:id="rId82"/>
-    <hyperlink ref="B94" r:id="rId83"/>
-    <hyperlink ref="B95" r:id="rId84"/>
-    <hyperlink ref="B96" r:id="rId85"/>
-    <hyperlink ref="B97" r:id="rId86"/>
-    <hyperlink ref="B98" r:id="rId87"/>
-    <hyperlink ref="B101" r:id="rId88"/>
-    <hyperlink ref="B102" r:id="rId89"/>
-    <hyperlink ref="B103" r:id="rId90"/>
-    <hyperlink ref="B104" r:id="rId91"/>
-    <hyperlink ref="B106" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B107" r:id="rId93"/>
-    <hyperlink ref="B108" r:id="rId94"/>
-    <hyperlink ref="B109" r:id="rId95"/>
-    <hyperlink ref="B110" r:id="rId96"/>
-    <hyperlink ref="B111" r:id="rId97"/>
-    <hyperlink ref="B113" r:id="rId98"/>
-    <hyperlink ref="B114" r:id="rId99"/>
-    <hyperlink ref="B115" r:id="rId100"/>
-    <hyperlink ref="B116" r:id="rId101"/>
-    <hyperlink ref="B117" r:id="rId102"/>
-    <hyperlink ref="B118" r:id="rId103"/>
-    <hyperlink ref="B119" r:id="rId104"/>
-    <hyperlink ref="B120" r:id="rId105"/>
-    <hyperlink ref="B121" r:id="rId106"/>
-    <hyperlink ref="B122" r:id="rId107"/>
-    <hyperlink ref="B123" r:id="rId108"/>
-    <hyperlink ref="B124" r:id="rId109"/>
-    <hyperlink ref="B125" r:id="rId110"/>
-    <hyperlink ref="B126" r:id="rId111"/>
-    <hyperlink ref="B127" r:id="rId112"/>
-    <hyperlink ref="B128" r:id="rId113"/>
-    <hyperlink ref="B129" r:id="rId114"/>
-    <hyperlink ref="B130" r:id="rId115"/>
-    <hyperlink ref="B131" r:id="rId116"/>
-    <hyperlink ref="B132" r:id="rId117"/>
-    <hyperlink ref="B133" r:id="rId118"/>
-    <hyperlink ref="B134" r:id="rId119"/>
-    <hyperlink ref="B135" r:id="rId120"/>
-    <hyperlink ref="B136" r:id="rId121"/>
-    <hyperlink ref="B105" r:id="rId122"/>
-    <hyperlink ref="B112" r:id="rId123"/>
-    <hyperlink ref="B139" r:id="rId124"/>
-    <hyperlink ref="B140" r:id="rId125"/>
-    <hyperlink ref="B141" r:id="rId126"/>
-    <hyperlink ref="B142" r:id="rId127"/>
-    <hyperlink ref="B143" r:id="rId128"/>
-    <hyperlink ref="B144" r:id="rId129"/>
-    <hyperlink ref="B145" r:id="rId130"/>
-    <hyperlink ref="B146" r:id="rId131"/>
-    <hyperlink ref="B147" r:id="rId132"/>
-    <hyperlink ref="B148" r:id="rId133"/>
-    <hyperlink ref="B149" r:id="rId134"/>
-    <hyperlink ref="B150" r:id="rId135"/>
-    <hyperlink ref="B151" r:id="rId136"/>
-    <hyperlink ref="B152" r:id="rId137"/>
-    <hyperlink ref="B153" r:id="rId138"/>
-    <hyperlink ref="B154" r:id="rId139"/>
-    <hyperlink ref="B155" r:id="rId140"/>
-    <hyperlink ref="B156" r:id="rId141"/>
-    <hyperlink ref="B157" r:id="rId142"/>
-    <hyperlink ref="B158" r:id="rId143"/>
-    <hyperlink ref="B159" r:id="rId144"/>
-    <hyperlink ref="B160" r:id="rId145"/>
-    <hyperlink ref="B161" r:id="rId146"/>
-    <hyperlink ref="B162" r:id="rId147"/>
-    <hyperlink ref="B163" r:id="rId148"/>
-    <hyperlink ref="B166" r:id="rId149"/>
-    <hyperlink ref="B167" r:id="rId150"/>
-    <hyperlink ref="B168" r:id="rId151"/>
-    <hyperlink ref="B169" r:id="rId152"/>
-    <hyperlink ref="B170" r:id="rId153"/>
-    <hyperlink ref="B171" r:id="rId154"/>
-    <hyperlink ref="B172" r:id="rId155"/>
-    <hyperlink ref="B173" r:id="rId156"/>
-    <hyperlink ref="B174" r:id="rId157"/>
-    <hyperlink ref="B177" r:id="rId158"/>
-    <hyperlink ref="B178" r:id="rId159"/>
-    <hyperlink ref="B179" r:id="rId160"/>
-    <hyperlink ref="B180" r:id="rId161"/>
-    <hyperlink ref="B181" r:id="rId162"/>
-    <hyperlink ref="B182" r:id="rId163"/>
-    <hyperlink ref="B183" r:id="rId164"/>
-    <hyperlink ref="B184" r:id="rId165"/>
-    <hyperlink ref="B185" r:id="rId166"/>
-    <hyperlink ref="B186" r:id="rId167"/>
-    <hyperlink ref="B187" r:id="rId168"/>
-    <hyperlink ref="B188" r:id="rId169"/>
-    <hyperlink ref="B189" r:id="rId170"/>
-    <hyperlink ref="B190" r:id="rId171"/>
-    <hyperlink ref="B191" r:id="rId172"/>
-    <hyperlink ref="B192" r:id="rId173"/>
-    <hyperlink ref="B193" r:id="rId174"/>
-    <hyperlink ref="B194" r:id="rId175"/>
-    <hyperlink ref="B195" r:id="rId176"/>
-    <hyperlink ref="B196" r:id="rId177"/>
-    <hyperlink ref="B197" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId179"/>
-    <hyperlink ref="B199" r:id="rId180"/>
-    <hyperlink ref="B200" r:id="rId181"/>
-    <hyperlink ref="B201" r:id="rId182"/>
-    <hyperlink ref="B202" r:id="rId183"/>
-    <hyperlink ref="B203" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId185"/>
-    <hyperlink ref="B205" r:id="rId186"/>
-    <hyperlink ref="B206" r:id="rId187"/>
-    <hyperlink ref="B207" r:id="rId188"/>
-    <hyperlink ref="B208" r:id="rId189"/>
-    <hyperlink ref="B209" r:id="rId190"/>
-    <hyperlink ref="B210" r:id="rId191"/>
-    <hyperlink ref="B211" r:id="rId192"/>
-    <hyperlink ref="B214" r:id="rId193"/>
-    <hyperlink ref="B215" r:id="rId194"/>
-    <hyperlink ref="B216" r:id="rId195"/>
-    <hyperlink ref="B217" r:id="rId196"/>
-    <hyperlink ref="B218" r:id="rId197"/>
-    <hyperlink ref="B219" r:id="rId198"/>
-    <hyperlink ref="B220" r:id="rId199"/>
-    <hyperlink ref="B221" r:id="rId200"/>
-    <hyperlink ref="B222" r:id="rId201"/>
-    <hyperlink ref="B223" r:id="rId202"/>
-    <hyperlink ref="B224" r:id="rId203"/>
-    <hyperlink ref="B225" r:id="rId204"/>
-    <hyperlink ref="B226" r:id="rId205"/>
-    <hyperlink ref="B227" r:id="rId206"/>
-    <hyperlink ref="B228" r:id="rId207"/>
-    <hyperlink ref="B229" r:id="rId208"/>
-    <hyperlink ref="B230" r:id="rId209"/>
-    <hyperlink ref="B231" r:id="rId210"/>
-    <hyperlink ref="B232" r:id="rId211"/>
-    <hyperlink ref="B233" r:id="rId212"/>
-    <hyperlink ref="B234" r:id="rId213"/>
-    <hyperlink ref="B235" r:id="rId214"/>
-    <hyperlink ref="B238" r:id="rId215"/>
-    <hyperlink ref="B239" r:id="rId216"/>
-    <hyperlink ref="B240" r:id="rId217"/>
-    <hyperlink ref="B241" r:id="rId218"/>
-    <hyperlink ref="B242" r:id="rId219"/>
-    <hyperlink ref="B243" r:id="rId220"/>
-    <hyperlink ref="B244" r:id="rId221"/>
-    <hyperlink ref="B245" r:id="rId222"/>
-    <hyperlink ref="B246" r:id="rId223"/>
-    <hyperlink ref="B247" r:id="rId224"/>
-    <hyperlink ref="B248" r:id="rId225"/>
-    <hyperlink ref="B249" r:id="rId226"/>
-    <hyperlink ref="B250" r:id="rId227"/>
-    <hyperlink ref="B251" r:id="rId228"/>
-    <hyperlink ref="B252" r:id="rId229"/>
-    <hyperlink ref="B253" r:id="rId230"/>
-    <hyperlink ref="B254" r:id="rId231"/>
-    <hyperlink ref="B255" r:id="rId232"/>
-    <hyperlink ref="B256" r:id="rId233"/>
-    <hyperlink ref="B257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId235"/>
-    <hyperlink ref="B259" r:id="rId236"/>
-    <hyperlink ref="B260" r:id="rId237"/>
-    <hyperlink ref="B261" r:id="rId238"/>
-    <hyperlink ref="B262" r:id="rId239"/>
-    <hyperlink ref="B263" r:id="rId240"/>
-    <hyperlink ref="B264" r:id="rId241"/>
-    <hyperlink ref="B265" r:id="rId242"/>
-    <hyperlink ref="B266" r:id="rId243"/>
-    <hyperlink ref="B267" r:id="rId244"/>
-    <hyperlink ref="B268" r:id="rId245"/>
-    <hyperlink ref="B269" r:id="rId246"/>
-    <hyperlink ref="B270" r:id="rId247"/>
-    <hyperlink ref="B271" r:id="rId248"/>
-    <hyperlink ref="B272" r:id="rId249"/>
-    <hyperlink ref="B275" r:id="rId250"/>
-    <hyperlink ref="B276" r:id="rId251"/>
-    <hyperlink ref="B277" r:id="rId252"/>
-    <hyperlink ref="B278" r:id="rId253"/>
-    <hyperlink ref="B279" r:id="rId254"/>
-    <hyperlink ref="B280" r:id="rId255"/>
-    <hyperlink ref="B281" r:id="rId256"/>
-    <hyperlink ref="B282" r:id="rId257"/>
-    <hyperlink ref="B283" r:id="rId258"/>
-    <hyperlink ref="B284" r:id="rId259"/>
-    <hyperlink ref="B285" r:id="rId260"/>
-    <hyperlink ref="B286" r:id="rId261"/>
-    <hyperlink ref="B287" r:id="rId262"/>
-    <hyperlink ref="B288" r:id="rId263"/>
-    <hyperlink ref="B289" r:id="rId264"/>
-    <hyperlink ref="B290" r:id="rId265"/>
-    <hyperlink ref="B291" r:id="rId266"/>
-    <hyperlink ref="B292" r:id="rId267"/>
-    <hyperlink ref="B293" r:id="rId268"/>
-    <hyperlink ref="B296" r:id="rId269"/>
-    <hyperlink ref="B297" r:id="rId270"/>
-    <hyperlink ref="B298" r:id="rId271"/>
-    <hyperlink ref="B299" r:id="rId272"/>
-    <hyperlink ref="B300" r:id="rId273"/>
-    <hyperlink ref="B301" r:id="rId274"/>
-    <hyperlink ref="B302" r:id="rId275"/>
-    <hyperlink ref="B303" r:id="rId276"/>
-    <hyperlink ref="B304" r:id="rId277"/>
-    <hyperlink ref="B305" r:id="rId278"/>
-    <hyperlink ref="B306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId280"/>
-    <hyperlink ref="B308" r:id="rId281"/>
-    <hyperlink ref="B309" r:id="rId282"/>
-    <hyperlink ref="B310" r:id="rId283"/>
-    <hyperlink ref="B311" r:id="rId284"/>
-    <hyperlink ref="B312" r:id="rId285"/>
-    <hyperlink ref="B313" r:id="rId286"/>
-    <hyperlink ref="B314" r:id="rId287"/>
-    <hyperlink ref="B315" r:id="rId288"/>
-    <hyperlink ref="B316" r:id="rId289"/>
-    <hyperlink ref="B317" r:id="rId290"/>
-    <hyperlink ref="B318" r:id="rId291"/>
-    <hyperlink ref="B319" r:id="rId292"/>
-    <hyperlink ref="B320" r:id="rId293"/>
-    <hyperlink ref="B321" r:id="rId294"/>
-    <hyperlink ref="B322" r:id="rId295"/>
-    <hyperlink ref="B323" r:id="rId296"/>
-    <hyperlink ref="B324" r:id="rId297"/>
-    <hyperlink ref="B325" r:id="rId298"/>
-    <hyperlink ref="B326" r:id="rId299"/>
-    <hyperlink ref="B327" r:id="rId300"/>
-    <hyperlink ref="B328" r:id="rId301"/>
-    <hyperlink ref="B329" r:id="rId302"/>
-    <hyperlink ref="B330" r:id="rId303"/>
-    <hyperlink ref="B331" r:id="rId304"/>
-    <hyperlink ref="B332" r:id="rId305"/>
-    <hyperlink ref="B333" r:id="rId306"/>
-    <hyperlink ref="B336" r:id="rId307"/>
-    <hyperlink ref="B337" r:id="rId308"/>
-    <hyperlink ref="B338" r:id="rId309"/>
-    <hyperlink ref="B339" r:id="rId310"/>
-    <hyperlink ref="B340" r:id="rId311"/>
-    <hyperlink ref="B341" r:id="rId312"/>
-    <hyperlink ref="B342" r:id="rId313"/>
-    <hyperlink ref="B343" r:id="rId314"/>
-    <hyperlink ref="B344" r:id="rId315"/>
-    <hyperlink ref="B345" r:id="rId316"/>
-    <hyperlink ref="B346" r:id="rId317"/>
-    <hyperlink ref="B347" r:id="rId318"/>
-    <hyperlink ref="B348" r:id="rId319"/>
-    <hyperlink ref="B349" r:id="rId320"/>
-    <hyperlink ref="B350" r:id="rId321"/>
-    <hyperlink ref="B351" r:id="rId322"/>
-    <hyperlink ref="B352" r:id="rId323"/>
-    <hyperlink ref="B353" r:id="rId324"/>
-    <hyperlink ref="B357" r:id="rId325"/>
-    <hyperlink ref="B358" r:id="rId326"/>
-    <hyperlink ref="B359" r:id="rId327"/>
-    <hyperlink ref="B360" r:id="rId328"/>
-    <hyperlink ref="B361" r:id="rId329"/>
-    <hyperlink ref="B362" r:id="rId330"/>
-    <hyperlink ref="B363" r:id="rId331"/>
-    <hyperlink ref="B364" r:id="rId332"/>
-    <hyperlink ref="B365" r:id="rId333"/>
-    <hyperlink ref="B366" r:id="rId334"/>
-    <hyperlink ref="B367" r:id="rId335"/>
-    <hyperlink ref="B368" r:id="rId336"/>
-    <hyperlink ref="B369" r:id="rId337"/>
-    <hyperlink ref="B370" r:id="rId338"/>
-    <hyperlink ref="B371" r:id="rId339"/>
-    <hyperlink ref="B372" r:id="rId340"/>
-    <hyperlink ref="B373" r:id="rId341"/>
-    <hyperlink ref="B374" r:id="rId342"/>
-    <hyperlink ref="B375" r:id="rId343"/>
-    <hyperlink ref="B376" r:id="rId344"/>
-    <hyperlink ref="B377" r:id="rId345"/>
-    <hyperlink ref="B378" r:id="rId346"/>
-    <hyperlink ref="B379" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId348"/>
-    <hyperlink ref="B381" r:id="rId349"/>
-    <hyperlink ref="B382" r:id="rId350"/>
-    <hyperlink ref="B383" r:id="rId351"/>
-    <hyperlink ref="B384" r:id="rId352"/>
-    <hyperlink ref="B385" r:id="rId353"/>
-    <hyperlink ref="B386" r:id="rId354"/>
-    <hyperlink ref="B387" r:id="rId355"/>
-    <hyperlink ref="B388" r:id="rId356"/>
-    <hyperlink ref="B389" r:id="rId357"/>
-    <hyperlink ref="B390" r:id="rId358"/>
-    <hyperlink ref="B391" r:id="rId359"/>
-    <hyperlink ref="B392" r:id="rId360"/>
-    <hyperlink ref="B393" r:id="rId361"/>
-    <hyperlink ref="B394" r:id="rId362"/>
-    <hyperlink ref="B396" r:id="rId363"/>
-    <hyperlink ref="B395" r:id="rId364"/>
-    <hyperlink ref="B397" r:id="rId365"/>
-    <hyperlink ref="B398" r:id="rId366"/>
-    <hyperlink ref="B399" r:id="rId367"/>
-    <hyperlink ref="B402" r:id="rId368"/>
-    <hyperlink ref="B403" r:id="rId369"/>
-    <hyperlink ref="B404" r:id="rId370"/>
-    <hyperlink ref="B405" r:id="rId371"/>
-    <hyperlink ref="B406" r:id="rId372"/>
-    <hyperlink ref="B407" r:id="rId373"/>
-    <hyperlink ref="B410" r:id="rId374"/>
-    <hyperlink ref="B411" r:id="rId375"/>
-    <hyperlink ref="B412" r:id="rId376"/>
-    <hyperlink ref="B413" r:id="rId377"/>
-    <hyperlink ref="B414" r:id="rId378"/>
-    <hyperlink ref="B415" r:id="rId379"/>
-    <hyperlink ref="B416" r:id="rId380"/>
-    <hyperlink ref="B417" r:id="rId381"/>
-    <hyperlink ref="B418" r:id="rId382"/>
-    <hyperlink ref="B419" r:id="rId383"/>
-    <hyperlink ref="B420" r:id="rId384"/>
-    <hyperlink ref="B421" r:id="rId385"/>
-    <hyperlink ref="B422" r:id="rId386"/>
-    <hyperlink ref="B423" r:id="rId387"/>
-    <hyperlink ref="B424" r:id="rId388"/>
-    <hyperlink ref="B425" r:id="rId389"/>
-    <hyperlink ref="B426" r:id="rId390"/>
-    <hyperlink ref="B427" r:id="rId391"/>
-    <hyperlink ref="B428" r:id="rId392"/>
-    <hyperlink ref="B429" r:id="rId393"/>
-    <hyperlink ref="B430" r:id="rId394"/>
-    <hyperlink ref="B431" r:id="rId395"/>
-    <hyperlink ref="B432" r:id="rId396"/>
-    <hyperlink ref="B433" r:id="rId397"/>
-    <hyperlink ref="B434" r:id="rId398"/>
-    <hyperlink ref="B435" r:id="rId399"/>
-    <hyperlink ref="B436" r:id="rId400"/>
-    <hyperlink ref="B437" r:id="rId401"/>
-    <hyperlink ref="B438" r:id="rId402"/>
-    <hyperlink ref="B439" r:id="rId403"/>
-    <hyperlink ref="B440" r:id="rId404"/>
-    <hyperlink ref="B441" r:id="rId405"/>
-    <hyperlink ref="B442" r:id="rId406"/>
-    <hyperlink ref="B443" r:id="rId407"/>
-    <hyperlink ref="B444" r:id="rId408"/>
-    <hyperlink ref="B445" r:id="rId409"/>
-    <hyperlink ref="B446" r:id="rId410"/>
-    <hyperlink ref="B447" r:id="rId411"/>
-    <hyperlink ref="B448" r:id="rId412"/>
-    <hyperlink ref="B449" r:id="rId413"/>
-    <hyperlink ref="B451" r:id="rId414"/>
-    <hyperlink ref="B450" r:id="rId415"/>
-    <hyperlink ref="B452" r:id="rId416"/>
-    <hyperlink ref="B453" r:id="rId417"/>
-    <hyperlink ref="B454" r:id="rId418"/>
-    <hyperlink ref="B455" r:id="rId419"/>
-    <hyperlink ref="B456" r:id="rId420"/>
-    <hyperlink ref="B457" r:id="rId421"/>
-    <hyperlink ref="B458" r:id="rId422"/>
-    <hyperlink ref="B459" r:id="rId423"/>
-    <hyperlink ref="B460" r:id="rId424"/>
-    <hyperlink ref="B461" r:id="rId425"/>
-    <hyperlink ref="B462" r:id="rId426"/>
-    <hyperlink ref="B469" r:id="rId427"/>
-    <hyperlink ref="B468" r:id="rId428"/>
-    <hyperlink ref="B467" r:id="rId429"/>
-    <hyperlink ref="B466" r:id="rId430"/>
-    <hyperlink ref="B465" r:id="rId431"/>
-    <hyperlink ref="B464" r:id="rId432"/>
-    <hyperlink ref="B463" r:id="rId433"/>
-    <hyperlink ref="B472" r:id="rId434"/>
-    <hyperlink ref="B473" r:id="rId435"/>
-    <hyperlink ref="B474" r:id="rId436"/>
-    <hyperlink ref="B475" r:id="rId437"/>
-    <hyperlink ref="B476" r:id="rId438"/>
-    <hyperlink ref="B477" r:id="rId439"/>
-    <hyperlink ref="B478" r:id="rId440"/>
-    <hyperlink ref="B481" r:id="rId441"/>
-    <hyperlink ref="B479" r:id="rId442"/>
-    <hyperlink ref="B480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId444"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B16" r:id="rId11"/>
+    <hyperlink ref="B17" r:id="rId12" display="Kadane's Algo [V.V.V.V.V IMP]"/>
+    <hyperlink ref="B18" r:id="rId13"/>
+    <hyperlink ref="B19" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="B21" r:id="rId16"/>
+    <hyperlink ref="B22" r:id="rId17"/>
+    <hyperlink ref="B23" r:id="rId18"/>
+    <hyperlink ref="B24" r:id="rId19"/>
+    <hyperlink ref="B25" r:id="rId20"/>
+    <hyperlink ref="B26" r:id="rId21"/>
+    <hyperlink ref="B27" r:id="rId22"/>
+    <hyperlink ref="B28" r:id="rId23"/>
+    <hyperlink ref="B29" r:id="rId24"/>
+    <hyperlink ref="B30" r:id="rId25"/>
+    <hyperlink ref="B31" r:id="rId26"/>
+    <hyperlink ref="B32" r:id="rId27"/>
+    <hyperlink ref="B33" r:id="rId28"/>
+    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="B35" r:id="rId30"/>
+    <hyperlink ref="B36" r:id="rId31"/>
+    <hyperlink ref="B37" r:id="rId32"/>
+    <hyperlink ref="B38" r:id="rId33"/>
+    <hyperlink ref="B39" r:id="rId34"/>
+    <hyperlink ref="B40" r:id="rId35"/>
+    <hyperlink ref="B43" r:id="rId36"/>
+    <hyperlink ref="B44" r:id="rId37"/>
+    <hyperlink ref="B45" r:id="rId38"/>
+    <hyperlink ref="B46" r:id="rId39"/>
+    <hyperlink ref="B47" r:id="rId40"/>
+    <hyperlink ref="B48" r:id="rId41"/>
+    <hyperlink ref="B49" r:id="rId42"/>
+    <hyperlink ref="B50" r:id="rId43"/>
+    <hyperlink ref="B51" r:id="rId44"/>
+    <hyperlink ref="B52" r:id="rId45"/>
+    <hyperlink ref="B55" r:id="rId46"/>
+    <hyperlink ref="B56" r:id="rId47"/>
+    <hyperlink ref="B57" r:id="rId48"/>
+    <hyperlink ref="B59" r:id="rId49"/>
+    <hyperlink ref="B60" r:id="rId50"/>
+    <hyperlink ref="B61" r:id="rId51"/>
+    <hyperlink ref="B62" r:id="rId52"/>
+    <hyperlink ref="B63" r:id="rId53"/>
+    <hyperlink ref="B64" r:id="rId54"/>
+    <hyperlink ref="B65" r:id="rId55"/>
+    <hyperlink ref="B66" r:id="rId56"/>
+    <hyperlink ref="B67" r:id="rId57"/>
+    <hyperlink ref="B68" r:id="rId58"/>
+    <hyperlink ref="B69" r:id="rId59"/>
+    <hyperlink ref="B70" r:id="rId60"/>
+    <hyperlink ref="B71" r:id="rId61"/>
+    <hyperlink ref="B72" r:id="rId62"/>
+    <hyperlink ref="B73" r:id="rId63"/>
+    <hyperlink ref="B74" r:id="rId64"/>
+    <hyperlink ref="B75" r:id="rId65"/>
+    <hyperlink ref="B76" r:id="rId66"/>
+    <hyperlink ref="B77" r:id="rId67"/>
+    <hyperlink ref="B78" r:id="rId68"/>
+    <hyperlink ref="B79" r:id="rId69"/>
+    <hyperlink ref="B80" r:id="rId70"/>
+    <hyperlink ref="B81" r:id="rId71"/>
+    <hyperlink ref="B82" r:id="rId72"/>
+    <hyperlink ref="B83" r:id="rId73"/>
+    <hyperlink ref="B84" r:id="rId74"/>
+    <hyperlink ref="B85" r:id="rId75"/>
+    <hyperlink ref="B86" r:id="rId76"/>
+    <hyperlink ref="B87" r:id="rId77"/>
+    <hyperlink ref="B88" r:id="rId78"/>
+    <hyperlink ref="B89" r:id="rId79"/>
+    <hyperlink ref="B90" r:id="rId80"/>
+    <hyperlink ref="B91" r:id="rId81"/>
+    <hyperlink ref="B92" r:id="rId82"/>
+    <hyperlink ref="B93" r:id="rId83"/>
+    <hyperlink ref="B94" r:id="rId84"/>
+    <hyperlink ref="B95" r:id="rId85"/>
+    <hyperlink ref="B96" r:id="rId86"/>
+    <hyperlink ref="B97" r:id="rId87"/>
+    <hyperlink ref="B100" r:id="rId88"/>
+    <hyperlink ref="B101" r:id="rId89"/>
+    <hyperlink ref="B102" r:id="rId90"/>
+    <hyperlink ref="B103" r:id="rId91"/>
+    <hyperlink ref="B105" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B106" r:id="rId93"/>
+    <hyperlink ref="B107" r:id="rId94"/>
+    <hyperlink ref="B108" r:id="rId95"/>
+    <hyperlink ref="B109" r:id="rId96"/>
+    <hyperlink ref="B110" r:id="rId97"/>
+    <hyperlink ref="B112" r:id="rId98"/>
+    <hyperlink ref="B113" r:id="rId99"/>
+    <hyperlink ref="B114" r:id="rId100"/>
+    <hyperlink ref="B115" r:id="rId101"/>
+    <hyperlink ref="B116" r:id="rId102"/>
+    <hyperlink ref="B117" r:id="rId103"/>
+    <hyperlink ref="B118" r:id="rId104"/>
+    <hyperlink ref="B119" r:id="rId105"/>
+    <hyperlink ref="B120" r:id="rId106"/>
+    <hyperlink ref="B121" r:id="rId107"/>
+    <hyperlink ref="B122" r:id="rId108"/>
+    <hyperlink ref="B123" r:id="rId109"/>
+    <hyperlink ref="B124" r:id="rId110"/>
+    <hyperlink ref="B125" r:id="rId111"/>
+    <hyperlink ref="B126" r:id="rId112"/>
+    <hyperlink ref="B127" r:id="rId113"/>
+    <hyperlink ref="B128" r:id="rId114"/>
+    <hyperlink ref="B129" r:id="rId115"/>
+    <hyperlink ref="B130" r:id="rId116"/>
+    <hyperlink ref="B131" r:id="rId117"/>
+    <hyperlink ref="B132" r:id="rId118"/>
+    <hyperlink ref="B133" r:id="rId119"/>
+    <hyperlink ref="B134" r:id="rId120"/>
+    <hyperlink ref="B135" r:id="rId121"/>
+    <hyperlink ref="B104" r:id="rId122"/>
+    <hyperlink ref="B111" r:id="rId123"/>
+    <hyperlink ref="B138" r:id="rId124"/>
+    <hyperlink ref="B139" r:id="rId125"/>
+    <hyperlink ref="B140" r:id="rId126"/>
+    <hyperlink ref="B141" r:id="rId127"/>
+    <hyperlink ref="B142" r:id="rId128"/>
+    <hyperlink ref="B143" r:id="rId129"/>
+    <hyperlink ref="B144" r:id="rId130"/>
+    <hyperlink ref="B145" r:id="rId131"/>
+    <hyperlink ref="B146" r:id="rId132"/>
+    <hyperlink ref="B147" r:id="rId133"/>
+    <hyperlink ref="B148" r:id="rId134"/>
+    <hyperlink ref="B149" r:id="rId135"/>
+    <hyperlink ref="B150" r:id="rId136"/>
+    <hyperlink ref="B151" r:id="rId137"/>
+    <hyperlink ref="B152" r:id="rId138"/>
+    <hyperlink ref="B153" r:id="rId139"/>
+    <hyperlink ref="B154" r:id="rId140"/>
+    <hyperlink ref="B155" r:id="rId141"/>
+    <hyperlink ref="B156" r:id="rId142"/>
+    <hyperlink ref="B157" r:id="rId143"/>
+    <hyperlink ref="B158" r:id="rId144"/>
+    <hyperlink ref="B159" r:id="rId145"/>
+    <hyperlink ref="B160" r:id="rId146"/>
+    <hyperlink ref="B161" r:id="rId147"/>
+    <hyperlink ref="B162" r:id="rId148"/>
+    <hyperlink ref="B165" r:id="rId149"/>
+    <hyperlink ref="B166" r:id="rId150"/>
+    <hyperlink ref="B167" r:id="rId151"/>
+    <hyperlink ref="B168" r:id="rId152"/>
+    <hyperlink ref="B169" r:id="rId153"/>
+    <hyperlink ref="B170" r:id="rId154"/>
+    <hyperlink ref="B171" r:id="rId155"/>
+    <hyperlink ref="B172" r:id="rId156"/>
+    <hyperlink ref="B173" r:id="rId157"/>
+    <hyperlink ref="B176" r:id="rId158"/>
+    <hyperlink ref="B177" r:id="rId159"/>
+    <hyperlink ref="B178" r:id="rId160"/>
+    <hyperlink ref="B179" r:id="rId161"/>
+    <hyperlink ref="B180" r:id="rId162"/>
+    <hyperlink ref="B181" r:id="rId163"/>
+    <hyperlink ref="B182" r:id="rId164"/>
+    <hyperlink ref="B183" r:id="rId165"/>
+    <hyperlink ref="B184" r:id="rId166"/>
+    <hyperlink ref="B185" r:id="rId167"/>
+    <hyperlink ref="B186" r:id="rId168"/>
+    <hyperlink ref="B187" r:id="rId169"/>
+    <hyperlink ref="B188" r:id="rId170"/>
+    <hyperlink ref="B189" r:id="rId171"/>
+    <hyperlink ref="B190" r:id="rId172"/>
+    <hyperlink ref="B191" r:id="rId173"/>
+    <hyperlink ref="B192" r:id="rId174"/>
+    <hyperlink ref="B193" r:id="rId175"/>
+    <hyperlink ref="B194" r:id="rId176"/>
+    <hyperlink ref="B195" r:id="rId177"/>
+    <hyperlink ref="B196" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B197" r:id="rId179"/>
+    <hyperlink ref="B198" r:id="rId180"/>
+    <hyperlink ref="B199" r:id="rId181"/>
+    <hyperlink ref="B200" r:id="rId182"/>
+    <hyperlink ref="B201" r:id="rId183"/>
+    <hyperlink ref="B202" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B203" r:id="rId185"/>
+    <hyperlink ref="B204" r:id="rId186"/>
+    <hyperlink ref="B205" r:id="rId187"/>
+    <hyperlink ref="B206" r:id="rId188"/>
+    <hyperlink ref="B207" r:id="rId189"/>
+    <hyperlink ref="B208" r:id="rId190"/>
+    <hyperlink ref="B209" r:id="rId191"/>
+    <hyperlink ref="B210" r:id="rId192"/>
+    <hyperlink ref="B213" r:id="rId193"/>
+    <hyperlink ref="B214" r:id="rId194"/>
+    <hyperlink ref="B215" r:id="rId195"/>
+    <hyperlink ref="B216" r:id="rId196"/>
+    <hyperlink ref="B217" r:id="rId197"/>
+    <hyperlink ref="B218" r:id="rId198"/>
+    <hyperlink ref="B219" r:id="rId199"/>
+    <hyperlink ref="B220" r:id="rId200"/>
+    <hyperlink ref="B221" r:id="rId201"/>
+    <hyperlink ref="B222" r:id="rId202"/>
+    <hyperlink ref="B223" r:id="rId203"/>
+    <hyperlink ref="B224" r:id="rId204"/>
+    <hyperlink ref="B225" r:id="rId205"/>
+    <hyperlink ref="B226" r:id="rId206"/>
+    <hyperlink ref="B227" r:id="rId207"/>
+    <hyperlink ref="B228" r:id="rId208"/>
+    <hyperlink ref="B229" r:id="rId209"/>
+    <hyperlink ref="B230" r:id="rId210"/>
+    <hyperlink ref="B231" r:id="rId211"/>
+    <hyperlink ref="B232" r:id="rId212"/>
+    <hyperlink ref="B233" r:id="rId213"/>
+    <hyperlink ref="B234" r:id="rId214"/>
+    <hyperlink ref="B237" r:id="rId215"/>
+    <hyperlink ref="B238" r:id="rId216"/>
+    <hyperlink ref="B239" r:id="rId217"/>
+    <hyperlink ref="B240" r:id="rId218"/>
+    <hyperlink ref="B241" r:id="rId219"/>
+    <hyperlink ref="B242" r:id="rId220"/>
+    <hyperlink ref="B243" r:id="rId221"/>
+    <hyperlink ref="B244" r:id="rId222"/>
+    <hyperlink ref="B245" r:id="rId223"/>
+    <hyperlink ref="B246" r:id="rId224"/>
+    <hyperlink ref="B247" r:id="rId225"/>
+    <hyperlink ref="B248" r:id="rId226"/>
+    <hyperlink ref="B249" r:id="rId227"/>
+    <hyperlink ref="B250" r:id="rId228"/>
+    <hyperlink ref="B251" r:id="rId229"/>
+    <hyperlink ref="B252" r:id="rId230"/>
+    <hyperlink ref="B253" r:id="rId231"/>
+    <hyperlink ref="B254" r:id="rId232"/>
+    <hyperlink ref="B255" r:id="rId233"/>
+    <hyperlink ref="B256" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B257" r:id="rId235"/>
+    <hyperlink ref="B258" r:id="rId236"/>
+    <hyperlink ref="B259" r:id="rId237"/>
+    <hyperlink ref="B260" r:id="rId238"/>
+    <hyperlink ref="B261" r:id="rId239"/>
+    <hyperlink ref="B262" r:id="rId240"/>
+    <hyperlink ref="B263" r:id="rId241"/>
+    <hyperlink ref="B264" r:id="rId242"/>
+    <hyperlink ref="B265" r:id="rId243"/>
+    <hyperlink ref="B266" r:id="rId244"/>
+    <hyperlink ref="B267" r:id="rId245"/>
+    <hyperlink ref="B268" r:id="rId246"/>
+    <hyperlink ref="B269" r:id="rId247"/>
+    <hyperlink ref="B270" r:id="rId248"/>
+    <hyperlink ref="B271" r:id="rId249"/>
+    <hyperlink ref="B274" r:id="rId250"/>
+    <hyperlink ref="B275" r:id="rId251"/>
+    <hyperlink ref="B276" r:id="rId252"/>
+    <hyperlink ref="B277" r:id="rId253"/>
+    <hyperlink ref="B278" r:id="rId254"/>
+    <hyperlink ref="B279" r:id="rId255"/>
+    <hyperlink ref="B280" r:id="rId256"/>
+    <hyperlink ref="B281" r:id="rId257"/>
+    <hyperlink ref="B282" r:id="rId258"/>
+    <hyperlink ref="B283" r:id="rId259"/>
+    <hyperlink ref="B284" r:id="rId260"/>
+    <hyperlink ref="B285" r:id="rId261"/>
+    <hyperlink ref="B286" r:id="rId262"/>
+    <hyperlink ref="B287" r:id="rId263"/>
+    <hyperlink ref="B288" r:id="rId264"/>
+    <hyperlink ref="B289" r:id="rId265"/>
+    <hyperlink ref="B290" r:id="rId266"/>
+    <hyperlink ref="B291" r:id="rId267"/>
+    <hyperlink ref="B292" r:id="rId268"/>
+    <hyperlink ref="B295" r:id="rId269"/>
+    <hyperlink ref="B296" r:id="rId270"/>
+    <hyperlink ref="B297" r:id="rId271"/>
+    <hyperlink ref="B298" r:id="rId272"/>
+    <hyperlink ref="B299" r:id="rId273"/>
+    <hyperlink ref="B300" r:id="rId274"/>
+    <hyperlink ref="B301" r:id="rId275"/>
+    <hyperlink ref="B302" r:id="rId276"/>
+    <hyperlink ref="B303" r:id="rId277"/>
+    <hyperlink ref="B304" r:id="rId278"/>
+    <hyperlink ref="B305" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B306" r:id="rId280"/>
+    <hyperlink ref="B307" r:id="rId281"/>
+    <hyperlink ref="B308" r:id="rId282"/>
+    <hyperlink ref="B309" r:id="rId283"/>
+    <hyperlink ref="B310" r:id="rId284"/>
+    <hyperlink ref="B311" r:id="rId285"/>
+    <hyperlink ref="B312" r:id="rId286"/>
+    <hyperlink ref="B313" r:id="rId287"/>
+    <hyperlink ref="B314" r:id="rId288"/>
+    <hyperlink ref="B315" r:id="rId289"/>
+    <hyperlink ref="B316" r:id="rId290"/>
+    <hyperlink ref="B317" r:id="rId291"/>
+    <hyperlink ref="B318" r:id="rId292"/>
+    <hyperlink ref="B319" r:id="rId293"/>
+    <hyperlink ref="B320" r:id="rId294"/>
+    <hyperlink ref="B321" r:id="rId295"/>
+    <hyperlink ref="B322" r:id="rId296"/>
+    <hyperlink ref="B323" r:id="rId297"/>
+    <hyperlink ref="B324" r:id="rId298"/>
+    <hyperlink ref="B325" r:id="rId299"/>
+    <hyperlink ref="B326" r:id="rId300"/>
+    <hyperlink ref="B327" r:id="rId301"/>
+    <hyperlink ref="B328" r:id="rId302"/>
+    <hyperlink ref="B329" r:id="rId303"/>
+    <hyperlink ref="B330" r:id="rId304"/>
+    <hyperlink ref="B331" r:id="rId305"/>
+    <hyperlink ref="B332" r:id="rId306"/>
+    <hyperlink ref="B335" r:id="rId307"/>
+    <hyperlink ref="B336" r:id="rId308"/>
+    <hyperlink ref="B337" r:id="rId309"/>
+    <hyperlink ref="B338" r:id="rId310"/>
+    <hyperlink ref="B339" r:id="rId311"/>
+    <hyperlink ref="B340" r:id="rId312"/>
+    <hyperlink ref="B341" r:id="rId313"/>
+    <hyperlink ref="B342" r:id="rId314"/>
+    <hyperlink ref="B343" r:id="rId315"/>
+    <hyperlink ref="B344" r:id="rId316"/>
+    <hyperlink ref="B345" r:id="rId317"/>
+    <hyperlink ref="B346" r:id="rId318"/>
+    <hyperlink ref="B347" r:id="rId319"/>
+    <hyperlink ref="B348" r:id="rId320"/>
+    <hyperlink ref="B349" r:id="rId321"/>
+    <hyperlink ref="B350" r:id="rId322"/>
+    <hyperlink ref="B351" r:id="rId323"/>
+    <hyperlink ref="B352" r:id="rId324"/>
+    <hyperlink ref="B356" r:id="rId325"/>
+    <hyperlink ref="B357" r:id="rId326"/>
+    <hyperlink ref="B358" r:id="rId327"/>
+    <hyperlink ref="B359" r:id="rId328"/>
+    <hyperlink ref="B360" r:id="rId329"/>
+    <hyperlink ref="B361" r:id="rId330"/>
+    <hyperlink ref="B362" r:id="rId331"/>
+    <hyperlink ref="B363" r:id="rId332"/>
+    <hyperlink ref="B364" r:id="rId333"/>
+    <hyperlink ref="B365" r:id="rId334"/>
+    <hyperlink ref="B366" r:id="rId335"/>
+    <hyperlink ref="B367" r:id="rId336"/>
+    <hyperlink ref="B368" r:id="rId337"/>
+    <hyperlink ref="B369" r:id="rId338"/>
+    <hyperlink ref="B370" r:id="rId339"/>
+    <hyperlink ref="B371" r:id="rId340"/>
+    <hyperlink ref="B372" r:id="rId341"/>
+    <hyperlink ref="B373" r:id="rId342"/>
+    <hyperlink ref="B374" r:id="rId343"/>
+    <hyperlink ref="B375" r:id="rId344"/>
+    <hyperlink ref="B376" r:id="rId345"/>
+    <hyperlink ref="B377" r:id="rId346"/>
+    <hyperlink ref="B378" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B379" r:id="rId348"/>
+    <hyperlink ref="B380" r:id="rId349"/>
+    <hyperlink ref="B381" r:id="rId350"/>
+    <hyperlink ref="B382" r:id="rId351"/>
+    <hyperlink ref="B383" r:id="rId352"/>
+    <hyperlink ref="B384" r:id="rId353"/>
+    <hyperlink ref="B385" r:id="rId354"/>
+    <hyperlink ref="B386" r:id="rId355"/>
+    <hyperlink ref="B387" r:id="rId356"/>
+    <hyperlink ref="B388" r:id="rId357"/>
+    <hyperlink ref="B389" r:id="rId358"/>
+    <hyperlink ref="B390" r:id="rId359"/>
+    <hyperlink ref="B391" r:id="rId360"/>
+    <hyperlink ref="B392" r:id="rId361"/>
+    <hyperlink ref="B393" r:id="rId362"/>
+    <hyperlink ref="B395" r:id="rId363"/>
+    <hyperlink ref="B394" r:id="rId364"/>
+    <hyperlink ref="B396" r:id="rId365"/>
+    <hyperlink ref="B397" r:id="rId366"/>
+    <hyperlink ref="B398" r:id="rId367"/>
+    <hyperlink ref="B401" r:id="rId368"/>
+    <hyperlink ref="B402" r:id="rId369"/>
+    <hyperlink ref="B403" r:id="rId370"/>
+    <hyperlink ref="B404" r:id="rId371"/>
+    <hyperlink ref="B405" r:id="rId372"/>
+    <hyperlink ref="B406" r:id="rId373"/>
+    <hyperlink ref="B409" r:id="rId374"/>
+    <hyperlink ref="B410" r:id="rId375"/>
+    <hyperlink ref="B411" r:id="rId376"/>
+    <hyperlink ref="B412" r:id="rId377"/>
+    <hyperlink ref="B413" r:id="rId378"/>
+    <hyperlink ref="B414" r:id="rId379"/>
+    <hyperlink ref="B415" r:id="rId380"/>
+    <hyperlink ref="B416" r:id="rId381"/>
+    <hyperlink ref="B417" r:id="rId382"/>
+    <hyperlink ref="B418" r:id="rId383"/>
+    <hyperlink ref="B419" r:id="rId384"/>
+    <hyperlink ref="B420" r:id="rId385"/>
+    <hyperlink ref="B421" r:id="rId386"/>
+    <hyperlink ref="B422" r:id="rId387"/>
+    <hyperlink ref="B423" r:id="rId388"/>
+    <hyperlink ref="B424" r:id="rId389"/>
+    <hyperlink ref="B425" r:id="rId390"/>
+    <hyperlink ref="B426" r:id="rId391"/>
+    <hyperlink ref="B427" r:id="rId392"/>
+    <hyperlink ref="B428" r:id="rId393"/>
+    <hyperlink ref="B429" r:id="rId394"/>
+    <hyperlink ref="B430" r:id="rId395"/>
+    <hyperlink ref="B431" r:id="rId396"/>
+    <hyperlink ref="B432" r:id="rId397"/>
+    <hyperlink ref="B433" r:id="rId398"/>
+    <hyperlink ref="B434" r:id="rId399"/>
+    <hyperlink ref="B435" r:id="rId400"/>
+    <hyperlink ref="B436" r:id="rId401"/>
+    <hyperlink ref="B437" r:id="rId402"/>
+    <hyperlink ref="B438" r:id="rId403"/>
+    <hyperlink ref="B439" r:id="rId404"/>
+    <hyperlink ref="B440" r:id="rId405"/>
+    <hyperlink ref="B441" r:id="rId406"/>
+    <hyperlink ref="B442" r:id="rId407"/>
+    <hyperlink ref="B443" r:id="rId408"/>
+    <hyperlink ref="B444" r:id="rId409"/>
+    <hyperlink ref="B445" r:id="rId410"/>
+    <hyperlink ref="B446" r:id="rId411"/>
+    <hyperlink ref="B447" r:id="rId412"/>
+    <hyperlink ref="B448" r:id="rId413"/>
+    <hyperlink ref="B450" r:id="rId414"/>
+    <hyperlink ref="B449" r:id="rId415"/>
+    <hyperlink ref="B451" r:id="rId416"/>
+    <hyperlink ref="B452" r:id="rId417"/>
+    <hyperlink ref="B453" r:id="rId418"/>
+    <hyperlink ref="B454" r:id="rId419"/>
+    <hyperlink ref="B455" r:id="rId420"/>
+    <hyperlink ref="B456" r:id="rId421"/>
+    <hyperlink ref="B457" r:id="rId422"/>
+    <hyperlink ref="B458" r:id="rId423"/>
+    <hyperlink ref="B459" r:id="rId424"/>
+    <hyperlink ref="B460" r:id="rId425"/>
+    <hyperlink ref="B461" r:id="rId426"/>
+    <hyperlink ref="B468" r:id="rId427"/>
+    <hyperlink ref="B467" r:id="rId428"/>
+    <hyperlink ref="B466" r:id="rId429"/>
+    <hyperlink ref="B465" r:id="rId430"/>
+    <hyperlink ref="B464" r:id="rId431"/>
+    <hyperlink ref="B463" r:id="rId432"/>
+    <hyperlink ref="B462" r:id="rId433"/>
+    <hyperlink ref="B471" r:id="rId434"/>
+    <hyperlink ref="B472" r:id="rId435"/>
+    <hyperlink ref="B473" r:id="rId436"/>
+    <hyperlink ref="B474" r:id="rId437"/>
+    <hyperlink ref="B475" r:id="rId438"/>
+    <hyperlink ref="B476" r:id="rId439"/>
+    <hyperlink ref="B477" r:id="rId440"/>
+    <hyperlink ref="B480" r:id="rId441"/>
+    <hyperlink ref="B478" r:id="rId442"/>
+    <hyperlink ref="B479" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B355" r:id="rId444"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="465">
   <si>
     <t>Topic:</t>
   </si>
@@ -1419,13 +1419,19 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>after merge sort</t>
+  </si>
+  <si>
+    <t>to do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1487,6 +1493,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1509,7 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1533,6 +1546,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1850,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1955,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1998,8 +2014,8 @@
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>3</v>
+      <c r="C16" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2042,8 +2058,8 @@
       <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>3</v>
+      <c r="C20" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2065,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2076,7 +2092,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2131,7 +2147,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
@@ -2142,7 +2158,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>3</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
@@ -7348,5 +7364,6 @@
     <hyperlink ref="B355" r:id="rId444"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId445"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -437,9 +437,6 @@
     <t>Write a program to Detect loop in a linked list.</t>
   </si>
   <si>
-    <t>Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
     <t>Find the starting point of the loop. </t>
   </si>
   <si>
@@ -1425,6 +1422,9 @@
   </si>
   <si>
     <t>to do</t>
+  </si>
+  <si>
+    <t>Write a program to remove loop in a linked list.</t>
   </si>
 </sst>
 </file>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1905,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1916,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1938,7 +1938,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1949,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1960,7 +1960,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1982,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -2004,7 +2004,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -2015,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2023,10 +2023,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2059,7 +2059,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2070,7 +2070,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2081,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2092,7 +2092,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2147,7 +2147,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
@@ -2158,7 +2158,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
@@ -2191,7 +2191,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2202,7 +2202,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2213,7 +2213,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
@@ -2257,7 +2257,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
@@ -2447,7 +2447,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -3314,7 +3314,7 @@
         <v>134</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
@@ -3322,10 +3322,10 @@
         <v>131</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>135</v>
+        <v>464</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3333,10 +3333,10 @@
         <v>131</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
@@ -3344,10 +3344,10 @@
         <v>131</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
@@ -3355,10 +3355,10 @@
         <v>131</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
@@ -3366,7 +3366,7 @@
         <v>131</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>3</v>
@@ -3377,7 +3377,7 @@
         <v>131</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>3</v>
@@ -3388,10 +3388,10 @@
         <v>131</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3399,7 +3399,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>3</v>
@@ -3410,10 +3410,10 @@
         <v>131</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
@@ -3421,7 +3421,7 @@
         <v>131</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>3</v>
@@ -3432,7 +3432,7 @@
         <v>131</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>3</v>
@@ -3443,10 +3443,10 @@
         <v>131</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
@@ -3454,7 +3454,7 @@
         <v>131</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>3</v>
@@ -3465,7 +3465,7 @@
         <v>131</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>3</v>
@@ -3476,7 +3476,7 @@
         <v>131</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>3</v>
@@ -3487,7 +3487,7 @@
         <v>131</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>3</v>
@@ -3498,7 +3498,7 @@
         <v>131</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>3</v>
@@ -3509,7 +3509,7 @@
         <v>131</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>3</v>
@@ -3520,7 +3520,7 @@
         <v>131</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>3</v>
@@ -3531,7 +3531,7 @@
         <v>131</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>3</v>
@@ -3542,7 +3542,7 @@
         <v>131</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>3</v>
@@ -3553,7 +3553,7 @@
         <v>131</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>3</v>
@@ -3564,10 +3564,10 @@
         <v>131</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
@@ -3575,10 +3575,10 @@
         <v>131</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
@@ -3586,7 +3586,7 @@
         <v>131</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>3</v>
@@ -3597,7 +3597,7 @@
         <v>131</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>3</v>
@@ -3608,7 +3608,7 @@
         <v>131</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>3</v>
@@ -3619,7 +3619,7 @@
         <v>131</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>3</v>
@@ -3630,7 +3630,7 @@
         <v>131</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>3</v>
@@ -3641,7 +3641,7 @@
         <v>131</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>3</v>
@@ -3652,7 +3652,7 @@
         <v>131</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>3</v>
@@ -3663,7 +3663,7 @@
         <v>131</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>3</v>
@@ -3674,7 +3674,7 @@
         <v>131</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>3</v>
@@ -3686,10 +3686,10 @@
     </row>
     <row r="176" spans="1:3" ht="21">
       <c r="A176" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>3</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>3</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>3</v>
@@ -3719,10 +3719,10 @@
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>3</v>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>3</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>3</v>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>3</v>
@@ -3763,10 +3763,10 @@
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>3</v>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>3</v>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>3</v>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>3</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>3</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>3</v>
@@ -3829,10 +3829,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>3</v>
@@ -3840,10 +3840,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>3</v>
@@ -3851,10 +3851,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>3</v>
@@ -3862,10 +3862,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>3</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>3</v>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>3</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>3</v>
@@ -3906,10 +3906,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>3</v>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>3</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>3</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>3</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>3</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>3</v>
@@ -3972,10 +3972,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>3</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>3</v>
@@ -3994,10 +3994,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>3</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>3</v>
@@ -4016,10 +4016,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>3</v>
@@ -4027,10 +4027,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>3</v>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>3</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>3</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>3</v>
@@ -4081,10 +4081,10 @@
     </row>
     <row r="213" spans="1:3" ht="21">
       <c r="A213" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>3</v>
@@ -4092,10 +4092,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>3</v>
@@ -4103,10 +4103,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>3</v>
@@ -4114,10 +4114,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>3</v>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>3</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>3</v>
@@ -4147,10 +4147,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>3</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>3</v>
@@ -4169,10 +4169,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>3</v>
@@ -4180,10 +4180,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>3</v>
@@ -4191,10 +4191,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>3</v>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>3</v>
@@ -4213,10 +4213,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>3</v>
@@ -4224,10 +4224,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>3</v>
@@ -4235,10 +4235,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>3</v>
@@ -4246,10 +4246,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>3</v>
@@ -4257,10 +4257,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>3</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>3</v>
@@ -4279,10 +4279,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>3</v>
@@ -4290,10 +4290,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>3</v>
@@ -4301,10 +4301,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>3</v>
@@ -4312,10 +4312,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>3</v>
@@ -4331,10 +4331,10 @@
     </row>
     <row r="237" spans="1:3" ht="21">
       <c r="A237" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>3</v>
@@ -4342,10 +4342,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>3</v>
@@ -4353,10 +4353,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>3</v>
@@ -4364,10 +4364,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>3</v>
@@ -4375,10 +4375,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>3</v>
@@ -4386,10 +4386,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>3</v>
@@ -4397,10 +4397,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>3</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>3</v>
@@ -4419,10 +4419,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>3</v>
@@ -4430,10 +4430,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>3</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>3</v>
@@ -4452,10 +4452,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>3</v>
@@ -4463,10 +4463,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>3</v>
@@ -4474,10 +4474,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>3</v>
@@ -4485,10 +4485,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>3</v>
@@ -4496,10 +4496,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>3</v>
@@ -4507,10 +4507,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>3</v>
@@ -4518,10 +4518,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>3</v>
@@ -4529,10 +4529,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>3</v>
@@ -4540,10 +4540,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>3</v>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>3</v>
@@ -4562,10 +4562,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>3</v>
@@ -4573,10 +4573,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>3</v>
@@ -4584,10 +4584,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>3</v>
@@ -4595,10 +4595,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>3</v>
@@ -4606,10 +4606,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>3</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>3</v>
@@ -4628,10 +4628,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>3</v>
@@ -4639,10 +4639,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>3</v>
@@ -4650,10 +4650,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>3</v>
@@ -4661,10 +4661,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>3</v>
@@ -4672,10 +4672,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>3</v>
@@ -4683,10 +4683,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>3</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>84</v>
@@ -4705,10 +4705,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>3</v>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="A274" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>3</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>3</v>
@@ -4746,10 +4746,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>3</v>
@@ -4757,10 +4757,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>3</v>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>3</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>3</v>
@@ -4790,10 +4790,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>3</v>
@@ -4801,10 +4801,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>3</v>
@@ -4812,10 +4812,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>3</v>
@@ -4823,10 +4823,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>3</v>
@@ -4834,10 +4834,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>3</v>
@@ -4845,10 +4845,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>3</v>
@@ -4856,10 +4856,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>3</v>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>3</v>
@@ -4878,10 +4878,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>3</v>
@@ -4889,10 +4889,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>3</v>
@@ -4900,10 +4900,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>3</v>
@@ -4911,10 +4911,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>3</v>
@@ -4922,10 +4922,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>3</v>
@@ -4941,10 +4941,10 @@
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B295" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="B295" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>3</v>
@@ -4952,10 +4952,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>3</v>
@@ -4963,10 +4963,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>3</v>
@@ -4974,10 +4974,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>3</v>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>3</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>3</v>
@@ -5007,10 +5007,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>3</v>
@@ -5018,10 +5018,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>3</v>
@@ -5029,10 +5029,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>3</v>
@@ -5040,10 +5040,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>3</v>
@@ -5051,10 +5051,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>3</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>3</v>
@@ -5073,10 +5073,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>3</v>
@@ -5084,10 +5084,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>3</v>
@@ -5095,10 +5095,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>3</v>
@@ -5106,10 +5106,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>3</v>
@@ -5117,10 +5117,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>3</v>
@@ -5128,10 +5128,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>3</v>
@@ -5139,10 +5139,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>3</v>
@@ -5150,10 +5150,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>3</v>
@@ -5161,10 +5161,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>3</v>
@@ -5172,10 +5172,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>3</v>
@@ -5183,10 +5183,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>3</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>3</v>
@@ -5205,10 +5205,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>3</v>
@@ -5216,10 +5216,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>3</v>
@@ -5227,10 +5227,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>3</v>
@@ -5238,10 +5238,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>3</v>
@@ -5249,10 +5249,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>3</v>
@@ -5260,10 +5260,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>3</v>
@@ -5271,10 +5271,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>3</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>3</v>
@@ -5293,10 +5293,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>3</v>
@@ -5304,10 +5304,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>3</v>
@@ -5315,10 +5315,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>3</v>
@@ -5326,10 +5326,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>3</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>3</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>3</v>
@@ -5367,10 +5367,10 @@
     </row>
     <row r="335" spans="1:3" ht="21">
       <c r="A335" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B335" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>3</v>
@@ -5378,10 +5378,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>3</v>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>3</v>
@@ -5400,10 +5400,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>3</v>
@@ -5411,10 +5411,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>3</v>
@@ -5422,10 +5422,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>3</v>
@@ -5433,10 +5433,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>3</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>3</v>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>3</v>
@@ -5466,10 +5466,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>3</v>
@@ -5477,10 +5477,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>3</v>
@@ -5488,10 +5488,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>3</v>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>3</v>
@@ -5510,10 +5510,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>3</v>
@@ -5521,10 +5521,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>3</v>
@@ -5532,10 +5532,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>3</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>3</v>
@@ -5554,10 +5554,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>3</v>
@@ -5573,10 +5573,10 @@
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B355" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="B355" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>3</v>
@@ -5584,10 +5584,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>3</v>
@@ -5595,10 +5595,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>3</v>
@@ -5606,10 +5606,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>3</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>3</v>
@@ -5628,10 +5628,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>3</v>
@@ -5639,10 +5639,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>3</v>
@@ -5650,10 +5650,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>3</v>
@@ -5661,10 +5661,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>3</v>
@@ -5672,10 +5672,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>3</v>
@@ -5683,10 +5683,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>3</v>
@@ -5694,10 +5694,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>3</v>
@@ -5705,10 +5705,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>3</v>
@@ -5716,10 +5716,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>3</v>
@@ -5727,10 +5727,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>3</v>
@@ -5738,10 +5738,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>3</v>
@@ -5749,10 +5749,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>3</v>
@@ -5760,10 +5760,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>3</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>3</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>3</v>
@@ -5793,10 +5793,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>3</v>
@@ -5804,10 +5804,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>3</v>
@@ -5815,10 +5815,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>3</v>
@@ -5826,10 +5826,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>3</v>
@@ -5837,10 +5837,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>3</v>
@@ -5848,10 +5848,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>3</v>
@@ -5859,10 +5859,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>3</v>
@@ -5870,10 +5870,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>3</v>
@@ -5881,10 +5881,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>3</v>
@@ -5892,10 +5892,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>3</v>
@@ -5903,10 +5903,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>3</v>
@@ -5914,10 +5914,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>3</v>
@@ -5925,10 +5925,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>3</v>
@@ -5936,10 +5936,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>3</v>
@@ -5947,10 +5947,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>3</v>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>3</v>
@@ -5969,10 +5969,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>3</v>
@@ -5980,10 +5980,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>3</v>
@@ -5991,10 +5991,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>3</v>
@@ -6002,10 +6002,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>3</v>
@@ -6013,10 +6013,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>3</v>
@@ -6024,10 +6024,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>3</v>
@@ -6035,10 +6035,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>3</v>
@@ -6046,10 +6046,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>3</v>
@@ -6065,10 +6065,10 @@
     </row>
     <row r="401" spans="1:3" ht="21">
       <c r="A401" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B401" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="B401" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>3</v>
@@ -6076,10 +6076,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>3</v>
@@ -6087,10 +6087,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>3</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B404" s="6" t="s">
         <v>86</v>
@@ -6109,10 +6109,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>3</v>
@@ -6120,10 +6120,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>3</v>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B409" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="B409" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>3</v>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>3</v>
@@ -6161,10 +6161,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>3</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>3</v>
@@ -6183,10 +6183,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>3</v>
@@ -6194,10 +6194,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>3</v>
@@ -6205,10 +6205,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>3</v>
@@ -6216,10 +6216,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>3</v>
@@ -6227,10 +6227,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>3</v>
@@ -6238,10 +6238,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>3</v>
@@ -6249,10 +6249,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>3</v>
@@ -6260,10 +6260,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>3</v>
@@ -6271,10 +6271,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>3</v>
@@ -6282,10 +6282,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>3</v>
@@ -6293,10 +6293,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>3</v>
@@ -6304,10 +6304,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>3</v>
@@ -6315,10 +6315,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>3</v>
@@ -6326,10 +6326,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>3</v>
@@ -6337,10 +6337,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>3</v>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>3</v>
@@ -6359,10 +6359,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>3</v>
@@ -6370,10 +6370,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>3</v>
@@ -6381,10 +6381,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>3</v>
@@ -6392,10 +6392,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>3</v>
@@ -6403,10 +6403,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>3</v>
@@ -6414,10 +6414,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>3</v>
@@ -6425,10 +6425,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>3</v>
@@ -6436,10 +6436,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>3</v>
@@ -6447,10 +6447,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>3</v>
@@ -6458,10 +6458,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>3</v>
@@ -6469,10 +6469,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>3</v>
@@ -6480,10 +6480,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>3</v>
@@ -6491,10 +6491,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>3</v>
@@ -6502,10 +6502,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>3</v>
@@ -6513,10 +6513,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>3</v>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>3</v>
@@ -6535,10 +6535,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>3</v>
@@ -6546,10 +6546,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>3</v>
@@ -6557,10 +6557,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>3</v>
@@ -6568,10 +6568,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>3</v>
@@ -6579,10 +6579,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>3</v>
@@ -6590,10 +6590,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>3</v>
@@ -6601,10 +6601,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>3</v>
@@ -6612,10 +6612,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>3</v>
@@ -6623,10 +6623,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>3</v>
@@ -6634,10 +6634,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>3</v>
@@ -6645,10 +6645,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>3</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>3</v>
@@ -6667,10 +6667,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>3</v>
@@ -6678,10 +6678,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>3</v>
@@ -6689,10 +6689,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>3</v>
@@ -6700,10 +6700,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>3</v>
@@ -6711,10 +6711,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>3</v>
@@ -6722,10 +6722,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>3</v>
@@ -6733,10 +6733,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>3</v>
@@ -6744,10 +6744,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>3</v>
@@ -6755,10 +6755,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>3</v>
@@ -6766,10 +6766,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>3</v>
@@ -6777,10 +6777,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>3</v>
@@ -6788,10 +6788,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>3</v>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B471" s="6" t="s">
         <v>450</v>
-      </c>
-      <c r="B471" s="6" t="s">
-        <v>451</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>3</v>
@@ -6819,10 +6819,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>3</v>
@@ -6830,10 +6830,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>3</v>
@@ -6841,10 +6841,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>3</v>
@@ -6852,10 +6852,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>3</v>
@@ -6863,10 +6863,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>3</v>
@@ -6874,10 +6874,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>3</v>
@@ -6885,10 +6885,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>3</v>
@@ -6896,10 +6896,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>3</v>
@@ -6907,10 +6907,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>3</v>
@@ -7044,7 +7044,7 @@
     <hyperlink ref="B138" r:id="rId124"/>
     <hyperlink ref="B139" r:id="rId125"/>
     <hyperlink ref="B140" r:id="rId126"/>
-    <hyperlink ref="B141" r:id="rId127"/>
+    <hyperlink ref="B141" r:id="rId127" display="Write a program to Delete loop in a linked list."/>
     <hyperlink ref="B142" r:id="rId128"/>
     <hyperlink ref="B143" r:id="rId129"/>
     <hyperlink ref="B144" r:id="rId130"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3380,7 +3380,7 @@
         <v>139</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
@@ -3666,7 +3666,7 @@
         <v>165</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3369,7 +3369,7 @@
         <v>138</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3402,7 +3402,7 @@
         <v>141</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3457,7 +3457,7 @@
         <v>146</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
@@ -3479,7 +3479,7 @@
         <v>148</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21">
@@ -3512,7 +3512,7 @@
         <v>151</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
@@ -3633,7 +3633,7 @@
         <v>162</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3655,7 +3655,7 @@
         <v>164</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1867,7 +1867,7 @@
   <dimension ref="A1:C480"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3303,7 +3303,7 @@
         <v>133</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
@@ -3600,7 +3600,7 @@
         <v>159</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21">
@@ -3622,7 +3622,7 @@
         <v>161</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="21">
@@ -3644,7 +3644,7 @@
         <v>163</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3468,7 +3468,7 @@
         <v>147</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3490,7 +3490,7 @@
         <v>149</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
@@ -3501,7 +3501,7 @@
         <v>150</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4947,7 +4947,7 @@
         <v>282</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="21">
@@ -5002,7 +5002,7 @@
         <v>287</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="21">
@@ -5013,7 +5013,7 @@
         <v>288</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
@@ -5024,7 +5024,7 @@
         <v>289</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
@@ -5101,7 +5101,7 @@
         <v>296</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">
@@ -5156,7 +5156,7 @@
         <v>301</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="B311" sqref="B311"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="C303" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -5035,7 +5035,7 @@
         <v>290</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
@@ -5123,7 +5123,7 @@
         <v>298</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
@@ -5354,7 +5354,7 @@
         <v>319</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="C303" sqref="C303"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3692,7 +3692,7 @@
         <v>168</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
@@ -3714,7 +3714,7 @@
         <v>170</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3703,7 +3703,7 @@
         <v>169</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3725,7 +3725,7 @@
         <v>171</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -3736,7 +3736,7 @@
         <v>172</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -3747,7 +3747,7 @@
         <v>173</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
@@ -3758,7 +3758,7 @@
         <v>174</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
@@ -3780,7 +3780,7 @@
         <v>176</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
@@ -3791,7 +3791,7 @@
         <v>177</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
@@ -3901,7 +3901,7 @@
         <v>187</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
@@ -3956,7 +3956,7 @@
         <v>192</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>3</v>
+        <v>461</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="464">
   <si>
     <t>Topic:</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t>Count and Say problem</t>
   </si>
   <si>
     <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
@@ -1866,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1905,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1916,7 +1913,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1927,7 +1924,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1938,7 +1935,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1949,7 +1946,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1960,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1971,7 +1968,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1982,7 +1979,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -2004,7 +2001,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -2015,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2023,10 +2020,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2037,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2059,7 +2056,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2070,7 +2067,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2081,7 +2078,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2092,7 +2089,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2147,7 +2144,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
@@ -2158,7 +2155,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
@@ -2191,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2202,7 +2199,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2213,7 +2210,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
@@ -2257,7 +2254,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
@@ -2414,7 +2411,7 @@
         <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="21">
@@ -2447,7 +2444,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2689,7 +2686,7 @@
         <v>76</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21">
@@ -2868,25 +2865,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row r="97" spans="1:3" ht="19.8">
       <c r="A97" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="98" spans="1:3" ht="21">
+      <c r="B98" s="7"/>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:3" ht="21">
       <c r="A99" s="8"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="4"/>
+      <c r="B99" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="21">
       <c r="A100" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>95</v>
@@ -2897,7 +2896,7 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>96</v>
@@ -2908,7 +2907,7 @@
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>97</v>
@@ -2919,7 +2918,7 @@
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>98</v>
@@ -2930,7 +2929,7 @@
     </row>
     <row r="104" spans="1:3" ht="21">
       <c r="A104" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>99</v>
@@ -2941,7 +2940,7 @@
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>100</v>
@@ -2952,7 +2951,7 @@
     </row>
     <row r="106" spans="1:3" ht="21">
       <c r="A106" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>101</v>
@@ -2963,7 +2962,7 @@
     </row>
     <row r="107" spans="1:3" ht="21">
       <c r="A107" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>102</v>
@@ -2974,7 +2973,7 @@
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>103</v>
@@ -2985,7 +2984,7 @@
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>104</v>
@@ -2996,7 +2995,7 @@
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>105</v>
@@ -3007,7 +3006,7 @@
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>106</v>
@@ -3018,7 +3017,7 @@
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>107</v>
@@ -3029,7 +3028,7 @@
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>108</v>
@@ -3040,7 +3039,7 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>109</v>
@@ -3051,7 +3050,7 @@
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>110</v>
@@ -3062,7 +3061,7 @@
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>111</v>
@@ -3073,7 +3072,7 @@
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>112</v>
@@ -3084,7 +3083,7 @@
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>113</v>
@@ -3095,7 +3094,7 @@
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>114</v>
@@ -3106,7 +3105,7 @@
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>115</v>
@@ -3117,7 +3116,7 @@
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>116</v>
@@ -3128,7 +3127,7 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>117</v>
@@ -3139,7 +3138,7 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>118</v>
@@ -3150,7 +3149,7 @@
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>119</v>
@@ -3161,7 +3160,7 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>120</v>
@@ -3172,7 +3171,7 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>121</v>
@@ -3183,7 +3182,7 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>122</v>
@@ -3194,7 +3193,7 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>123</v>
@@ -3205,7 +3204,7 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>124</v>
@@ -3216,7 +3215,7 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>125</v>
@@ -3227,7 +3226,7 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>126</v>
@@ -3238,7 +3237,7 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>127</v>
@@ -3249,7 +3248,7 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>128</v>
@@ -3260,7 +3259,7 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>129</v>
@@ -3269,156 +3268,158 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21">
+    <row r="135" spans="1:3" ht="19.8">
       <c r="A135" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="21">
+      <c r="B136" s="7"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3" ht="21">
-      <c r="B137" s="7"/>
-      <c r="C137" s="4"/>
+      <c r="B137" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="138" spans="1:3" ht="21">
       <c r="A138" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>134</v>
+        <v>463</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>464</v>
+        <v>134</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
       <c r="A142" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>143</v>
@@ -3429,95 +3430,95 @@
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>148</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>150</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>152</v>
@@ -3528,7 +3529,7 @@
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>153</v>
@@ -3539,7 +3540,7 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>154</v>
@@ -3550,253 +3551,255 @@
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B162" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>155</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B164" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>163</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="19.8">
       <c r="A173" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="21">
+      <c r="B174" s="7"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="1:3" ht="21">
-      <c r="B175" s="7"/>
-      <c r="C175" s="4"/>
+      <c r="B175" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="176" spans="1:3" ht="21">
       <c r="A176" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>174</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>175</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>178</v>
@@ -3807,7 +3810,7 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>179</v>
@@ -3818,7 +3821,7 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>180</v>
@@ -3829,7 +3832,7 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>181</v>
@@ -3840,7 +3843,7 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>182</v>
@@ -3851,7 +3854,7 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>183</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>184</v>
@@ -3873,7 +3876,7 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>185</v>
@@ -3884,29 +3887,29 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>186</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>188</v>
@@ -3917,7 +3920,7 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>189</v>
@@ -3928,7 +3931,7 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>190</v>
@@ -3939,29 +3942,29 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>192</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>193</v>
@@ -3972,7 +3975,7 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>194</v>
@@ -3983,7 +3986,7 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>195</v>
@@ -3994,7 +3997,7 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>196</v>
@@ -4005,7 +4008,7 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>197</v>
@@ -4016,7 +4019,7 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>198</v>
@@ -4027,7 +4030,7 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>199</v>
@@ -4038,7 +4041,7 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>200</v>
@@ -4049,7 +4052,7 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>201</v>
@@ -4060,14 +4063,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B210" s="7"/>
+      <c r="C210" s="4"/>
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="8"/>
@@ -4076,12 +4075,16 @@
     </row>
     <row r="212" spans="1:3" ht="21">
       <c r="A212" s="8"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="4"/>
+      <c r="B212" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="213" spans="1:3" ht="21">
       <c r="A213" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>204</v>
@@ -4092,7 +4095,7 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>205</v>
@@ -4103,7 +4106,7 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>206</v>
@@ -4114,7 +4117,7 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>207</v>
@@ -4125,7 +4128,7 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>208</v>
@@ -4136,9 +4139,9 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B218" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B218" s="9" t="s">
         <v>209</v>
       </c>
       <c r="C218" s="4" t="s">
@@ -4147,9 +4150,9 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B219" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B219" s="6" t="s">
         <v>210</v>
       </c>
       <c r="C219" s="4" t="s">
@@ -4158,7 +4161,7 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>211</v>
@@ -4169,7 +4172,7 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>212</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>213</v>
@@ -4191,7 +4194,7 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>214</v>
@@ -4202,7 +4205,7 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>215</v>
@@ -4213,7 +4216,7 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>216</v>
@@ -4224,7 +4227,7 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>217</v>
@@ -4235,7 +4238,7 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>218</v>
@@ -4246,7 +4249,7 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>219</v>
@@ -4257,7 +4260,7 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>220</v>
@@ -4268,7 +4271,7 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>221</v>
@@ -4279,7 +4282,7 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>222</v>
@@ -4290,7 +4293,7 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>223</v>
@@ -4301,7 +4304,7 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>224</v>
@@ -4312,26 +4315,26 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B234" s="7"/>
+      <c r="C234" s="4"/>
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="B235" s="7"/>
       <c r="C235" s="4"/>
     </row>
     <row r="236" spans="1:3" ht="21">
-      <c r="B236" s="7"/>
-      <c r="C236" s="4"/>
+      <c r="B236" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="237" spans="1:3" ht="21">
       <c r="A237" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>227</v>
@@ -4342,7 +4345,7 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>228</v>
@@ -4353,7 +4356,7 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>229</v>
@@ -4364,7 +4367,7 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>230</v>
@@ -4375,7 +4378,7 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>231</v>
@@ -4386,7 +4389,7 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>232</v>
@@ -4397,7 +4400,7 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>233</v>
@@ -4408,7 +4411,7 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>234</v>
@@ -4419,7 +4422,7 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>235</v>
@@ -4430,7 +4433,7 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>236</v>
@@ -4441,7 +4444,7 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>237</v>
@@ -4452,7 +4455,7 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>238</v>
@@ -4463,7 +4466,7 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>239</v>
@@ -4474,7 +4477,7 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>240</v>
@@ -4485,7 +4488,7 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>241</v>
@@ -4496,7 +4499,7 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>242</v>
@@ -4507,7 +4510,7 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>243</v>
@@ -4518,7 +4521,7 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>244</v>
@@ -4529,7 +4532,7 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>245</v>
@@ -4540,7 +4543,7 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>246</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>247</v>
@@ -4562,7 +4565,7 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>248</v>
@@ -4573,7 +4576,7 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>249</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>250</v>
@@ -4595,7 +4598,7 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>251</v>
@@ -4606,7 +4609,7 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>252</v>
@@ -4617,7 +4620,7 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>253</v>
@@ -4628,7 +4631,7 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>254</v>
@@ -4639,7 +4642,7 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>255</v>
@@ -4650,7 +4653,7 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>256</v>
@@ -4661,7 +4664,7 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>257</v>
@@ -4672,7 +4675,7 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>258</v>
@@ -4683,10 +4686,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>3</v>
@@ -4694,10 +4697,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>84</v>
+        <v>259</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>3</v>
@@ -4705,26 +4708,26 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B271" s="7"/>
+      <c r="C271" s="4"/>
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="B272" s="7"/>
       <c r="C272" s="4"/>
     </row>
     <row r="273" spans="1:3" ht="21">
-      <c r="B273" s="7"/>
-      <c r="C273" s="4"/>
+      <c r="B273" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="A274" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>262</v>
@@ -4735,7 +4738,7 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>263</v>
@@ -4746,7 +4749,7 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>264</v>
@@ -4757,7 +4760,7 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>265</v>
@@ -4768,7 +4771,7 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>266</v>
@@ -4779,7 +4782,7 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>267</v>
@@ -4790,7 +4793,7 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>268</v>
@@ -4801,7 +4804,7 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>269</v>
@@ -4812,7 +4815,7 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>270</v>
@@ -4823,7 +4826,7 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>271</v>
@@ -4834,7 +4837,7 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>272</v>
@@ -4845,7 +4848,7 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>273</v>
@@ -4856,7 +4859,7 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>274</v>
@@ -4867,7 +4870,7 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>275</v>
@@ -4878,7 +4881,7 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>276</v>
@@ -4889,7 +4892,7 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>277</v>
@@ -4900,7 +4903,7 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>278</v>
@@ -4911,7 +4914,7 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>279</v>
@@ -4922,37 +4925,37 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B292" s="7"/>
+      <c r="C292" s="4"/>
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="B293" s="7"/>
       <c r="C293" s="4"/>
     </row>
     <row r="294" spans="1:3" ht="21">
-      <c r="B294" s="7"/>
-      <c r="C294" s="4"/>
+      <c r="B294" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="A295" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>283</v>
@@ -4963,7 +4966,7 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>284</v>
@@ -4974,7 +4977,7 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>285</v>
@@ -4985,62 +4988,62 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>286</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>287</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>288</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>289</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>290</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>291</v>
@@ -5051,7 +5054,7 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>292</v>
@@ -5062,7 +5065,7 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>293</v>
@@ -5073,9 +5076,9 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B307" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B307" s="9" t="s">
         <v>294</v>
       </c>
       <c r="C307" s="4" t="s">
@@ -5084,51 +5087,51 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B308" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B308" s="6" t="s">
         <v>295</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>297</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>298</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>299</v>
@@ -5139,29 +5142,29 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B313" s="6" t="s">
         <v>300</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B314" s="6" t="s">
         <v>301</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>302</v>
@@ -5172,7 +5175,7 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>303</v>
@@ -5183,7 +5186,7 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B317" s="6" t="s">
         <v>304</v>
@@ -5194,7 +5197,7 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>305</v>
@@ -5205,7 +5208,7 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>306</v>
@@ -5216,7 +5219,7 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>307</v>
@@ -5227,7 +5230,7 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>308</v>
@@ -5238,7 +5241,7 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>309</v>
@@ -5249,7 +5252,7 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>310</v>
@@ -5260,7 +5263,7 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>311</v>
@@ -5271,7 +5274,7 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>312</v>
@@ -5282,7 +5285,7 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>313</v>
@@ -5293,7 +5296,7 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>314</v>
@@ -5304,7 +5307,7 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>315</v>
@@ -5315,7 +5318,7 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>316</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>317</v>
@@ -5337,37 +5340,37 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>318</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B332" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C332" s="4" t="s">
-        <v>461</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B332" s="7"/>
+      <c r="C332" s="4"/>
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="B333" s="7"/>
       <c r="C333" s="4"/>
     </row>
     <row r="334" spans="1:3" ht="21">
-      <c r="B334" s="7"/>
-      <c r="C334" s="4"/>
+      <c r="B334" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="335" spans="1:3" ht="21">
       <c r="A335" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>321</v>
@@ -5378,7 +5381,7 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>322</v>
@@ -5389,7 +5392,7 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>323</v>
@@ -5400,7 +5403,7 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>324</v>
@@ -5411,7 +5414,7 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>325</v>
@@ -5422,7 +5425,7 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>326</v>
@@ -5433,7 +5436,7 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>327</v>
@@ -5444,9 +5447,9 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B342" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B342" s="9" t="s">
         <v>328</v>
       </c>
       <c r="C342" s="4" t="s">
@@ -5455,9 +5458,9 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B343" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B343" s="6" t="s">
         <v>329</v>
       </c>
       <c r="C343" s="4" t="s">
@@ -5466,7 +5469,7 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>330</v>
@@ -5477,7 +5480,7 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>331</v>
@@ -5488,7 +5491,7 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>332</v>
@@ -5499,7 +5502,7 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>333</v>
@@ -5510,7 +5513,7 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>334</v>
@@ -5521,7 +5524,7 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>335</v>
@@ -5532,7 +5535,7 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>336</v>
@@ -5543,7 +5546,7 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>337</v>
@@ -5554,26 +5557,26 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B352" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B352" s="7"/>
+      <c r="C352" s="4"/>
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="B353" s="7"/>
       <c r="C353" s="4"/>
     </row>
     <row r="354" spans="1:3" ht="21">
-      <c r="B354" s="7"/>
-      <c r="C354" s="4"/>
+      <c r="B354" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="A355" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>340</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>341</v>
@@ -5595,7 +5598,7 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>342</v>
@@ -5606,7 +5609,7 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>343</v>
@@ -5617,7 +5620,7 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>344</v>
@@ -5628,7 +5631,7 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>345</v>
@@ -5639,7 +5642,7 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>346</v>
@@ -5650,7 +5653,7 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>347</v>
@@ -5661,7 +5664,7 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>348</v>
@@ -5672,7 +5675,7 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>349</v>
@@ -5683,7 +5686,7 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>350</v>
@@ -5694,7 +5697,7 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>351</v>
@@ -5705,7 +5708,7 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>352</v>
@@ -5716,7 +5719,7 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>353</v>
@@ -5727,7 +5730,7 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>354</v>
@@ -5738,7 +5741,7 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>355</v>
@@ -5749,7 +5752,7 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>356</v>
@@ -5760,7 +5763,7 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>357</v>
@@ -5771,7 +5774,7 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B373" s="6" t="s">
         <v>358</v>
@@ -5782,7 +5785,7 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>359</v>
@@ -5793,7 +5796,7 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B375" s="6" t="s">
         <v>360</v>
@@ -5804,7 +5807,7 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B376" s="6" t="s">
         <v>361</v>
@@ -5815,7 +5818,7 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>362</v>
@@ -5826,7 +5829,7 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B378" s="6" t="s">
         <v>363</v>
@@ -5837,7 +5840,7 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>364</v>
@@ -5848,7 +5851,7 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B380" s="6" t="s">
         <v>365</v>
@@ -5859,7 +5862,7 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>366</v>
@@ -5870,7 +5873,7 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>367</v>
@@ -5881,7 +5884,7 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>368</v>
@@ -5892,7 +5895,7 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>369</v>
@@ -5903,7 +5906,7 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>370</v>
@@ -5914,7 +5917,7 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>371</v>
@@ -5925,7 +5928,7 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>372</v>
@@ -5936,10 +5939,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>3</v>
@@ -5947,7 +5950,7 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>373</v>
@@ -5958,7 +5961,7 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>374</v>
@@ -5969,7 +5972,7 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>375</v>
@@ -5980,7 +5983,7 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>376</v>
@@ -5991,7 +5994,7 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>377</v>
@@ -6002,7 +6005,7 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>378</v>
@@ -6013,7 +6016,7 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>379</v>
@@ -6024,7 +6027,7 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>380</v>
@@ -6035,7 +6038,7 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>381</v>
@@ -6046,26 +6049,26 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B398" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B398" s="7"/>
+      <c r="C398" s="4"/>
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="B399" s="7"/>
       <c r="C399" s="4"/>
     </row>
     <row r="400" spans="1:3" ht="21">
-      <c r="B400" s="7"/>
-      <c r="C400" s="4"/>
+      <c r="B400" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="401" spans="1:3" ht="21">
       <c r="A401" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B401" s="6" t="s">
         <v>384</v>
@@ -6076,7 +6079,7 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B402" s="6" t="s">
         <v>385</v>
@@ -6087,10 +6090,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>386</v>
+        <v>85</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>3</v>
@@ -6098,10 +6101,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>86</v>
+        <v>386</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>3</v>
@@ -6109,7 +6112,7 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>387</v>
@@ -6120,26 +6123,26 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="B406" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C406" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B406" s="7"/>
+      <c r="C406" s="4"/>
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="B407" s="7"/>
       <c r="C407" s="4"/>
     </row>
     <row r="408" spans="1:3" ht="21">
-      <c r="B408" s="7"/>
-      <c r="C408" s="4"/>
+      <c r="B408" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="A409" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B409" s="6" t="s">
         <v>390</v>
@@ -6150,7 +6153,7 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>391</v>
@@ -6161,7 +6164,7 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B411" s="6" t="s">
         <v>392</v>
@@ -6172,7 +6175,7 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B412" s="6" t="s">
         <v>393</v>
@@ -6183,7 +6186,7 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B413" s="6" t="s">
         <v>394</v>
@@ -6194,7 +6197,7 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B414" s="6" t="s">
         <v>395</v>
@@ -6205,10 +6208,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>396</v>
+        <v>268</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>3</v>
@@ -6216,10 +6219,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>269</v>
+        <v>396</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>3</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B417" s="6" t="s">
         <v>397</v>
@@ -6238,7 +6241,7 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B418" s="6" t="s">
         <v>398</v>
@@ -6249,7 +6252,7 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B419" s="6" t="s">
         <v>399</v>
@@ -6260,7 +6263,7 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>400</v>
@@ -6271,7 +6274,7 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B421" s="6" t="s">
         <v>401</v>
@@ -6282,7 +6285,7 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B422" s="6" t="s">
         <v>402</v>
@@ -6293,7 +6296,7 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B423" s="6" t="s">
         <v>403</v>
@@ -6304,7 +6307,7 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B424" s="6" t="s">
         <v>404</v>
@@ -6315,7 +6318,7 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B425" s="6" t="s">
         <v>405</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B426" s="6" t="s">
         <v>406</v>
@@ -6337,7 +6340,7 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>407</v>
@@ -6348,7 +6351,7 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B428" s="6" t="s">
         <v>408</v>
@@ -6359,7 +6362,7 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>409</v>
@@ -6370,7 +6373,7 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B430" s="6" t="s">
         <v>410</v>
@@ -6381,7 +6384,7 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B431" s="6" t="s">
         <v>411</v>
@@ -6392,7 +6395,7 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B432" s="6" t="s">
         <v>412</v>
@@ -6403,7 +6406,7 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B433" s="6" t="s">
         <v>413</v>
@@ -6414,7 +6417,7 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B434" s="6" t="s">
         <v>414</v>
@@ -6425,7 +6428,7 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B435" s="6" t="s">
         <v>415</v>
@@ -6436,7 +6439,7 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B436" s="6" t="s">
         <v>416</v>
@@ -6447,7 +6450,7 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B437" s="6" t="s">
         <v>417</v>
@@ -6458,7 +6461,7 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B438" s="6" t="s">
         <v>418</v>
@@ -6469,7 +6472,7 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B439" s="6" t="s">
         <v>419</v>
@@ -6480,7 +6483,7 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B440" s="6" t="s">
         <v>420</v>
@@ -6491,7 +6494,7 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B441" s="6" t="s">
         <v>421</v>
@@ -6502,7 +6505,7 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B442" s="6" t="s">
         <v>422</v>
@@ -6513,7 +6516,7 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B443" s="6" t="s">
         <v>423</v>
@@ -6524,7 +6527,7 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B444" s="6" t="s">
         <v>424</v>
@@ -6535,7 +6538,7 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B445" s="6" t="s">
         <v>425</v>
@@ -6546,7 +6549,7 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>426</v>
@@ -6557,7 +6560,7 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B447" s="6" t="s">
         <v>427</v>
@@ -6568,7 +6571,7 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B448" s="6" t="s">
         <v>428</v>
@@ -6579,7 +6582,7 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B449" s="6" t="s">
         <v>429</v>
@@ -6590,7 +6593,7 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B450" s="6" t="s">
         <v>430</v>
@@ -6601,7 +6604,7 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B451" s="6" t="s">
         <v>431</v>
@@ -6612,7 +6615,7 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B452" s="6" t="s">
         <v>432</v>
@@ -6623,7 +6626,7 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B453" s="6" t="s">
         <v>433</v>
@@ -6634,7 +6637,7 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>434</v>
@@ -6645,7 +6648,7 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B455" s="6" t="s">
         <v>435</v>
@@ -6656,7 +6659,7 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B456" s="6" t="s">
         <v>436</v>
@@ -6667,7 +6670,7 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B457" s="6" t="s">
         <v>437</v>
@@ -6678,7 +6681,7 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B458" s="6" t="s">
         <v>438</v>
@@ -6689,7 +6692,7 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B459" s="6" t="s">
         <v>439</v>
@@ -6700,7 +6703,7 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B460" s="6" t="s">
         <v>440</v>
@@ -6711,7 +6714,7 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B461" s="6" t="s">
         <v>441</v>
@@ -6722,7 +6725,7 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B462" s="6" t="s">
         <v>442</v>
@@ -6733,7 +6736,7 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B463" s="6" t="s">
         <v>443</v>
@@ -6744,7 +6747,7 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B464" s="6" t="s">
         <v>444</v>
@@ -6755,7 +6758,7 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B465" s="6" t="s">
         <v>445</v>
@@ -6766,7 +6769,7 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B466" s="6" t="s">
         <v>446</v>
@@ -6777,7 +6780,7 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B467" s="6" t="s">
         <v>447</v>
@@ -6788,14 +6791,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B468" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C468" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B468" s="7"/>
+      <c r="C468" s="4"/>
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="B469" s="7"/>
@@ -6803,12 +6802,16 @@
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="A470" s="8"/>
-      <c r="B470" s="7"/>
-      <c r="C470" s="4"/>
+      <c r="B470" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B471" s="6" t="s">
         <v>450</v>
@@ -6819,7 +6822,7 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B472" s="6" t="s">
         <v>451</v>
@@ -6830,7 +6833,7 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B473" s="6" t="s">
         <v>452</v>
@@ -6841,7 +6844,7 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B474" s="6" t="s">
         <v>453</v>
@@ -6852,7 +6855,7 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B475" s="6" t="s">
         <v>454</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B476" s="6" t="s">
         <v>455</v>
@@ -6874,7 +6877,7 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B477" s="6" t="s">
         <v>456</v>
@@ -6885,7 +6888,7 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B478" s="6" t="s">
         <v>457</v>
@@ -6896,7 +6899,7 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B479" s="6" t="s">
         <v>458</v>
@@ -6905,15 +6908,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21">
+    <row r="480" spans="1:3" ht="19.8">
       <c r="A480" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B480" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C480" s="4" t="s">
-        <v>3</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -7004,17 +7001,17 @@
     <hyperlink ref="B94" r:id="rId84"/>
     <hyperlink ref="B95" r:id="rId85"/>
     <hyperlink ref="B96" r:id="rId86"/>
-    <hyperlink ref="B97" r:id="rId87"/>
+    <hyperlink ref="B99" r:id="rId87"/>
     <hyperlink ref="B100" r:id="rId88"/>
     <hyperlink ref="B101" r:id="rId89"/>
     <hyperlink ref="B102" r:id="rId90"/>
-    <hyperlink ref="B103" r:id="rId91"/>
-    <hyperlink ref="B105" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B104" r:id="rId91" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B105" r:id="rId92"/>
     <hyperlink ref="B106" r:id="rId93"/>
     <hyperlink ref="B107" r:id="rId94"/>
     <hyperlink ref="B108" r:id="rId95"/>
     <hyperlink ref="B109" r:id="rId96"/>
-    <hyperlink ref="B110" r:id="rId97"/>
+    <hyperlink ref="B111" r:id="rId97"/>
     <hyperlink ref="B112" r:id="rId98"/>
     <hyperlink ref="B113" r:id="rId99"/>
     <hyperlink ref="B114" r:id="rId100"/>
@@ -7038,13 +7035,13 @@
     <hyperlink ref="B132" r:id="rId118"/>
     <hyperlink ref="B133" r:id="rId119"/>
     <hyperlink ref="B134" r:id="rId120"/>
-    <hyperlink ref="B135" r:id="rId121"/>
-    <hyperlink ref="B104" r:id="rId122"/>
-    <hyperlink ref="B111" r:id="rId123"/>
+    <hyperlink ref="B103" r:id="rId121"/>
+    <hyperlink ref="B110" r:id="rId122"/>
+    <hyperlink ref="B137" r:id="rId123"/>
     <hyperlink ref="B138" r:id="rId124"/>
     <hyperlink ref="B139" r:id="rId125"/>
-    <hyperlink ref="B140" r:id="rId126"/>
-    <hyperlink ref="B141" r:id="rId127" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B140" r:id="rId126" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B141" r:id="rId127"/>
     <hyperlink ref="B142" r:id="rId128"/>
     <hyperlink ref="B143" r:id="rId129"/>
     <hyperlink ref="B144" r:id="rId130"/>
@@ -7065,7 +7062,7 @@
     <hyperlink ref="B159" r:id="rId145"/>
     <hyperlink ref="B160" r:id="rId146"/>
     <hyperlink ref="B161" r:id="rId147"/>
-    <hyperlink ref="B162" r:id="rId148"/>
+    <hyperlink ref="B164" r:id="rId148"/>
     <hyperlink ref="B165" r:id="rId149"/>
     <hyperlink ref="B166" r:id="rId150"/>
     <hyperlink ref="B167" r:id="rId151"/>
@@ -7074,7 +7071,7 @@
     <hyperlink ref="B170" r:id="rId154"/>
     <hyperlink ref="B171" r:id="rId155"/>
     <hyperlink ref="B172" r:id="rId156"/>
-    <hyperlink ref="B173" r:id="rId157"/>
+    <hyperlink ref="B175" r:id="rId157"/>
     <hyperlink ref="B176" r:id="rId158"/>
     <hyperlink ref="B177" r:id="rId159"/>
     <hyperlink ref="B178" r:id="rId160"/>
@@ -7094,14 +7091,14 @@
     <hyperlink ref="B192" r:id="rId174"/>
     <hyperlink ref="B193" r:id="rId175"/>
     <hyperlink ref="B194" r:id="rId176"/>
-    <hyperlink ref="B195" r:id="rId177"/>
-    <hyperlink ref="B196" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B195" r:id="rId177" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B196" r:id="rId178"/>
     <hyperlink ref="B197" r:id="rId179"/>
     <hyperlink ref="B198" r:id="rId180"/>
     <hyperlink ref="B199" r:id="rId181"/>
     <hyperlink ref="B200" r:id="rId182"/>
-    <hyperlink ref="B201" r:id="rId183"/>
-    <hyperlink ref="B202" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B201" r:id="rId183" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B202" r:id="rId184"/>
     <hyperlink ref="B203" r:id="rId185"/>
     <hyperlink ref="B204" r:id="rId186"/>
     <hyperlink ref="B205" r:id="rId187"/>
@@ -7109,7 +7106,7 @@
     <hyperlink ref="B207" r:id="rId189"/>
     <hyperlink ref="B208" r:id="rId190"/>
     <hyperlink ref="B209" r:id="rId191"/>
-    <hyperlink ref="B210" r:id="rId192"/>
+    <hyperlink ref="B212" r:id="rId192"/>
     <hyperlink ref="B213" r:id="rId193"/>
     <hyperlink ref="B214" r:id="rId194"/>
     <hyperlink ref="B215" r:id="rId195"/>
@@ -7131,7 +7128,7 @@
     <hyperlink ref="B231" r:id="rId211"/>
     <hyperlink ref="B232" r:id="rId212"/>
     <hyperlink ref="B233" r:id="rId213"/>
-    <hyperlink ref="B234" r:id="rId214"/>
+    <hyperlink ref="B236" r:id="rId214"/>
     <hyperlink ref="B237" r:id="rId215"/>
     <hyperlink ref="B238" r:id="rId216"/>
     <hyperlink ref="B239" r:id="rId217"/>
@@ -7150,8 +7147,8 @@
     <hyperlink ref="B252" r:id="rId230"/>
     <hyperlink ref="B253" r:id="rId231"/>
     <hyperlink ref="B254" r:id="rId232"/>
-    <hyperlink ref="B255" r:id="rId233"/>
-    <hyperlink ref="B256" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B255" r:id="rId233" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B256" r:id="rId234"/>
     <hyperlink ref="B257" r:id="rId235"/>
     <hyperlink ref="B258" r:id="rId236"/>
     <hyperlink ref="B259" r:id="rId237"/>
@@ -7166,7 +7163,7 @@
     <hyperlink ref="B268" r:id="rId246"/>
     <hyperlink ref="B269" r:id="rId247"/>
     <hyperlink ref="B270" r:id="rId248"/>
-    <hyperlink ref="B271" r:id="rId249"/>
+    <hyperlink ref="B273" r:id="rId249"/>
     <hyperlink ref="B274" r:id="rId250"/>
     <hyperlink ref="B275" r:id="rId251"/>
     <hyperlink ref="B276" r:id="rId252"/>
@@ -7185,7 +7182,7 @@
     <hyperlink ref="B289" r:id="rId265"/>
     <hyperlink ref="B290" r:id="rId266"/>
     <hyperlink ref="B291" r:id="rId267"/>
-    <hyperlink ref="B292" r:id="rId268"/>
+    <hyperlink ref="B294" r:id="rId268"/>
     <hyperlink ref="B295" r:id="rId269"/>
     <hyperlink ref="B296" r:id="rId270"/>
     <hyperlink ref="B297" r:id="rId271"/>
@@ -7195,8 +7192,8 @@
     <hyperlink ref="B301" r:id="rId275"/>
     <hyperlink ref="B302" r:id="rId276"/>
     <hyperlink ref="B303" r:id="rId277"/>
-    <hyperlink ref="B304" r:id="rId278"/>
-    <hyperlink ref="B305" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B304" r:id="rId278" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B305" r:id="rId279"/>
     <hyperlink ref="B306" r:id="rId280"/>
     <hyperlink ref="B307" r:id="rId281"/>
     <hyperlink ref="B308" r:id="rId282"/>
@@ -7223,7 +7220,7 @@
     <hyperlink ref="B329" r:id="rId303"/>
     <hyperlink ref="B330" r:id="rId304"/>
     <hyperlink ref="B331" r:id="rId305"/>
-    <hyperlink ref="B332" r:id="rId306"/>
+    <hyperlink ref="B334" r:id="rId306"/>
     <hyperlink ref="B335" r:id="rId307"/>
     <hyperlink ref="B336" r:id="rId308"/>
     <hyperlink ref="B337" r:id="rId309"/>
@@ -7241,7 +7238,7 @@
     <hyperlink ref="B349" r:id="rId321"/>
     <hyperlink ref="B350" r:id="rId322"/>
     <hyperlink ref="B351" r:id="rId323"/>
-    <hyperlink ref="B352" r:id="rId324"/>
+    <hyperlink ref="B355" r:id="rId324"/>
     <hyperlink ref="B356" r:id="rId325"/>
     <hyperlink ref="B357" r:id="rId326"/>
     <hyperlink ref="B358" r:id="rId327"/>
@@ -7263,8 +7260,8 @@
     <hyperlink ref="B374" r:id="rId343"/>
     <hyperlink ref="B375" r:id="rId344"/>
     <hyperlink ref="B376" r:id="rId345"/>
-    <hyperlink ref="B377" r:id="rId346"/>
-    <hyperlink ref="B378" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B377" r:id="rId346" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B378" r:id="rId347"/>
     <hyperlink ref="B379" r:id="rId348"/>
     <hyperlink ref="B380" r:id="rId349"/>
     <hyperlink ref="B381" r:id="rId350"/>
@@ -7279,18 +7276,18 @@
     <hyperlink ref="B390" r:id="rId359"/>
     <hyperlink ref="B391" r:id="rId360"/>
     <hyperlink ref="B392" r:id="rId361"/>
-    <hyperlink ref="B393" r:id="rId362"/>
-    <hyperlink ref="B395" r:id="rId363"/>
-    <hyperlink ref="B394" r:id="rId364"/>
+    <hyperlink ref="B394" r:id="rId362"/>
+    <hyperlink ref="B393" r:id="rId363"/>
+    <hyperlink ref="B395" r:id="rId364"/>
     <hyperlink ref="B396" r:id="rId365"/>
     <hyperlink ref="B397" r:id="rId366"/>
-    <hyperlink ref="B398" r:id="rId367"/>
+    <hyperlink ref="B400" r:id="rId367"/>
     <hyperlink ref="B401" r:id="rId368"/>
     <hyperlink ref="B402" r:id="rId369"/>
     <hyperlink ref="B403" r:id="rId370"/>
     <hyperlink ref="B404" r:id="rId371"/>
     <hyperlink ref="B405" r:id="rId372"/>
-    <hyperlink ref="B406" r:id="rId373"/>
+    <hyperlink ref="B408" r:id="rId373"/>
     <hyperlink ref="B409" r:id="rId374"/>
     <hyperlink ref="B410" r:id="rId375"/>
     <hyperlink ref="B411" r:id="rId376"/>
@@ -7330,9 +7327,9 @@
     <hyperlink ref="B445" r:id="rId410"/>
     <hyperlink ref="B446" r:id="rId411"/>
     <hyperlink ref="B447" r:id="rId412"/>
-    <hyperlink ref="B448" r:id="rId413"/>
-    <hyperlink ref="B450" r:id="rId414"/>
-    <hyperlink ref="B449" r:id="rId415"/>
+    <hyperlink ref="B449" r:id="rId413"/>
+    <hyperlink ref="B448" r:id="rId414"/>
+    <hyperlink ref="B450" r:id="rId415"/>
     <hyperlink ref="B451" r:id="rId416"/>
     <hyperlink ref="B452" r:id="rId417"/>
     <hyperlink ref="B453" r:id="rId418"/>
@@ -7343,27 +7340,26 @@
     <hyperlink ref="B458" r:id="rId423"/>
     <hyperlink ref="B459" r:id="rId424"/>
     <hyperlink ref="B460" r:id="rId425"/>
-    <hyperlink ref="B461" r:id="rId426"/>
-    <hyperlink ref="B468" r:id="rId427"/>
-    <hyperlink ref="B467" r:id="rId428"/>
-    <hyperlink ref="B466" r:id="rId429"/>
-    <hyperlink ref="B465" r:id="rId430"/>
-    <hyperlink ref="B464" r:id="rId431"/>
-    <hyperlink ref="B463" r:id="rId432"/>
-    <hyperlink ref="B462" r:id="rId433"/>
+    <hyperlink ref="B467" r:id="rId426"/>
+    <hyperlink ref="B466" r:id="rId427"/>
+    <hyperlink ref="B465" r:id="rId428"/>
+    <hyperlink ref="B464" r:id="rId429"/>
+    <hyperlink ref="B463" r:id="rId430"/>
+    <hyperlink ref="B462" r:id="rId431"/>
+    <hyperlink ref="B461" r:id="rId432"/>
+    <hyperlink ref="B470" r:id="rId433"/>
     <hyperlink ref="B471" r:id="rId434"/>
     <hyperlink ref="B472" r:id="rId435"/>
     <hyperlink ref="B473" r:id="rId436"/>
     <hyperlink ref="B474" r:id="rId437"/>
     <hyperlink ref="B475" r:id="rId438"/>
     <hyperlink ref="B476" r:id="rId439"/>
-    <hyperlink ref="B477" r:id="rId440"/>
-    <hyperlink ref="B480" r:id="rId441"/>
-    <hyperlink ref="B478" r:id="rId442"/>
-    <hyperlink ref="B479" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B355" r:id="rId444"/>
+    <hyperlink ref="B479" r:id="rId440"/>
+    <hyperlink ref="B477" r:id="rId441"/>
+    <hyperlink ref="B478" r:id="rId442" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B354" r:id="rId443"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId445"/>
+  <pageSetup orientation="portrait" r:id="rId444"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2554,7 +2554,7 @@
         <v>64</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2875,7 +2875,9 @@
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:3" ht="21">
-      <c r="A99" s="8"/>
+      <c r="A99" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="B99" s="6" t="s">
         <v>94</v>
       </c>
@@ -3268,16 +3270,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="19.8">
-      <c r="A135" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="136" spans="1:3" ht="21">
       <c r="B136" s="7"/>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3" ht="21">
+      <c r="A137" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="B137" s="6" t="s">
         <v>131</v>
       </c>
@@ -3670,16 +3670,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="19.8">
-      <c r="A173" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="174" spans="1:3" ht="21">
       <c r="B174" s="7"/>
       <c r="C174" s="4"/>
     </row>
     <row r="175" spans="1:3" ht="21">
+      <c r="A175" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="B175" s="6" t="s">
         <v>167</v>
       </c>
@@ -4062,9 +4060,6 @@
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
-      <c r="A210" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="B210" s="7"/>
       <c r="C210" s="4"/>
     </row>
@@ -4074,12 +4069,14 @@
       <c r="C211" s="4"/>
     </row>
     <row r="212" spans="1:3" ht="21">
-      <c r="A212" s="8"/>
+      <c r="A212" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="B212" s="6" t="s">
         <v>203</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="21">
@@ -4123,7 +4120,7 @@
         <v>207</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="21">
@@ -4314,9 +4311,6 @@
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">
-      <c r="A234" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="B234" s="7"/>
       <c r="C234" s="4"/>
     </row>
@@ -4325,6 +4319,9 @@
       <c r="C235" s="4"/>
     </row>
     <row r="236" spans="1:3" ht="21">
+      <c r="A236" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="B236" s="6" t="s">
         <v>226</v>
       </c>
@@ -4707,9 +4704,6 @@
       </c>
     </row>
     <row r="271" spans="1:3" ht="21">
-      <c r="A271" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="B271" s="7"/>
       <c r="C271" s="4"/>
     </row>
@@ -4718,6 +4712,9 @@
       <c r="C272" s="4"/>
     </row>
     <row r="273" spans="1:3" ht="21">
+      <c r="A273" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="B273" s="6" t="s">
         <v>261</v>
       </c>
@@ -4924,9 +4921,7 @@
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">
-      <c r="A292" s="5" t="s">
-        <v>260</v>
-      </c>
+      <c r="A292" s="5"/>
       <c r="B292" s="7"/>
       <c r="C292" s="4"/>
     </row>
@@ -4935,6 +4930,9 @@
       <c r="C293" s="4"/>
     </row>
     <row r="294" spans="1:3" ht="21">
+      <c r="A294" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="B294" s="6" t="s">
         <v>281</v>
       </c>
@@ -5350,9 +5348,7 @@
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
-      <c r="A332" s="5" t="s">
-        <v>280</v>
-      </c>
+      <c r="A332" s="5"/>
       <c r="B332" s="7"/>
       <c r="C332" s="4"/>
     </row>
@@ -5361,6 +5357,9 @@
       <c r="C333" s="4"/>
     </row>
     <row r="334" spans="1:3" ht="21">
+      <c r="A334" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="B334" s="6" t="s">
         <v>320</v>
       </c>
@@ -5556,9 +5555,6 @@
       </c>
     </row>
     <row r="352" spans="1:3" ht="21">
-      <c r="A352" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="B352" s="7"/>
       <c r="C352" s="4"/>
     </row>
@@ -5567,6 +5563,9 @@
       <c r="C353" s="4"/>
     </row>
     <row r="354" spans="1:3" ht="21">
+      <c r="A354" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="B354" s="6" t="s">
         <v>339</v>
       </c>
@@ -6048,9 +6047,7 @@
       </c>
     </row>
     <row r="398" spans="1:3" ht="21">
-      <c r="A398" s="8" t="s">
-        <v>338</v>
-      </c>
+      <c r="A398" s="8"/>
       <c r="B398" s="7"/>
       <c r="C398" s="4"/>
     </row>
@@ -6059,6 +6056,9 @@
       <c r="C399" s="4"/>
     </row>
     <row r="400" spans="1:3" ht="21">
+      <c r="A400" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="B400" s="6" t="s">
         <v>383</v>
       </c>
@@ -6122,9 +6122,7 @@
       </c>
     </row>
     <row r="406" spans="1:3" ht="21">
-      <c r="A406" s="8" t="s">
-        <v>382</v>
-      </c>
+      <c r="A406" s="8"/>
       <c r="B406" s="7"/>
       <c r="C406" s="4"/>
     </row>
@@ -6133,6 +6131,9 @@
       <c r="C407" s="4"/>
     </row>
     <row r="408" spans="1:3" ht="21">
+      <c r="A408" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="B408" s="6" t="s">
         <v>389</v>
       </c>
@@ -6790,9 +6791,7 @@
       </c>
     </row>
     <row r="468" spans="1:3" ht="21">
-      <c r="A468" s="5" t="s">
-        <v>388</v>
-      </c>
+      <c r="A468" s="5"/>
       <c r="B468" s="7"/>
       <c r="C468" s="4"/>
     </row>
@@ -6801,7 +6800,9 @@
       <c r="C469" s="4"/>
     </row>
     <row r="470" spans="1:3" ht="21">
-      <c r="A470" s="8"/>
+      <c r="A470" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="B470" s="6" t="s">
         <v>449</v>
       </c>
@@ -6909,9 +6910,7 @@
       </c>
     </row>
     <row r="480" spans="1:3" ht="19.8">
-      <c r="A480" s="5" t="s">
-        <v>448</v>
-      </c>
+      <c r="A480" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="464">
   <si>
     <t>Topic:</t>
   </si>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2866,9 +2866,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="19.8">
-      <c r="A97" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A97" s="5"/>
     </row>
     <row r="98" spans="1:3" ht="21">
       <c r="B98" s="7"/>
@@ -4296,7 +4294,7 @@
         <v>223</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -4096,7 +4096,7 @@
         <v>205</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
@@ -4140,7 +4140,7 @@
         <v>209</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
@@ -4195,7 +4195,7 @@
         <v>214</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
@@ -4206,7 +4206,7 @@
         <v>215</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="B213" sqref="B213"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1990,7 +1990,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -2111,7 +2111,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2422,7 +2422,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2433,7 +2433,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2455,7 +2455,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
@@ -2807,7 +2807,7 @@
         <v>87</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2902,7 +2902,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2373,7 +2373,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>3</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">
